--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harisqureshi/Desktop/stickJumpForce/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1D35DA-86BB-1E48-ADAD-7338EFFE0198}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -14,9 +20,9 @@
     <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -513,7 +519,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -591,15 +597,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -610,6 +607,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,8 +635,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -665,7 +681,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -673,11 +689,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -757,8 +795,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="125712256"/>
         <c:axId val="125731200"/>
       </c:lineChart>
@@ -767,6 +819,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -794,7 +847,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -802,9 +855,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -844,12 +918,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="125731200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -895,7 +971,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -903,9 +979,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -948,6 +1045,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -983,8 +1081,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1012,7 +1120,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1020,11 +1128,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1100,8 +1230,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="125804928"/>
         <c:axId val="125806848"/>
       </c:lineChart>
@@ -1110,6 +1254,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1137,7 +1282,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1145,9 +1290,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1187,12 +1353,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="125806848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1234,7 +1402,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1242,9 +1410,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1287,6 +1476,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1322,8 +1512,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1351,7 +1551,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1359,11 +1559,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1444,8 +1666,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C6F-AF48-B151-43D429BD06D6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="104458496"/>
         <c:axId val="125751680"/>
       </c:lineChart>
@@ -1454,6 +1690,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1481,7 +1718,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1489,9 +1726,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1531,12 +1789,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="125751680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1578,7 +1838,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1586,9 +1846,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1631,6 +1912,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1666,8 +1948,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1695,7 +1987,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1703,11 +1995,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1788,8 +2102,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1178-D040-8156-1AEB260753B1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="104644992"/>
         <c:axId val="104646912"/>
       </c:lineChart>
@@ -1798,6 +2126,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1825,7 +2154,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1833,9 +2162,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1875,12 +2225,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="104646912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1922,7 +2274,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1930,9 +2282,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1975,6 +2348,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2010,8 +2384,18 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2039,7 +2423,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2047,11 +2431,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2132,8 +2538,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F18-774F-A342-170B03A00982}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="123955072"/>
         <c:axId val="123973632"/>
       </c:lineChart>
@@ -2142,6 +2562,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2169,7 +2590,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2177,9 +2598,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2219,12 +2661,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="123973632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2266,7 +2710,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2274,9 +2718,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2319,6 +2784,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2354,8 +2820,18 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2383,7 +2859,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2391,11 +2867,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2476,8 +2974,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5C8-8047-B566-1F73CBEC0C97}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="104935424"/>
         <c:axId val="104937344"/>
       </c:lineChart>
@@ -2486,6 +2998,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2513,7 +3026,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2521,9 +3034,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2563,12 +3097,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="104937344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2610,7 +3146,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2618,9 +3154,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2663,6 +3220,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6050,7 +6608,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6085,7 +6649,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6120,7 +6690,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6157,7 +6733,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6194,7 +6776,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6231,7 +6819,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6506,51 +7100,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:5" ht="19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4"/>
@@ -6593,7 +7187,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <f>C8-D9</f>
+        <f t="shared" ref="B9:B14" si="0">C8-D9</f>
         <v>28</v>
       </c>
       <c r="C9">
@@ -6601,7 +7195,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>43377</v>
       </c>
     </row>
@@ -6610,15 +7204,15 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <f>C9-D10</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C14" si="0">C9-D9</f>
+        <f t="shared" ref="C10:C14" si="1">C9-D9</f>
         <v>28</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>43384</v>
       </c>
     </row>
@@ -6627,15 +7221,15 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <f>C10-D11</f>
-        <v>28</v>
-      </c>
-      <c r="C11">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>43398</v>
       </c>
     </row>
@@ -6644,15 +7238,15 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <f>C11-D12</f>
-        <v>28</v>
-      </c>
-      <c r="C12">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>43412</v>
       </c>
     </row>
@@ -6661,15 +7255,15 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <f>C12-D13</f>
-        <v>28</v>
-      </c>
-      <c r="C13">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>43419</v>
       </c>
     </row>
@@ -6678,15 +7272,15 @@
         <v>78</v>
       </c>
       <c r="B14">
-        <f>C13-D14</f>
-        <v>28</v>
-      </c>
-      <c r="C14">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>43437</v>
       </c>
     </row>
@@ -6733,10 +7327,10 @@
       <c r="H20" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="8"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -6780,17 +7374,17 @@
       <c r="G22" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="10"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B48" si="1">B22+1</f>
+        <f t="shared" ref="B23:B48" si="2">B22+1</f>
         <v>3</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -6818,7 +7412,7 @@
         <v>97</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -6846,7 +7440,7 @@
         <v>98</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -6874,7 +7468,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -6896,7 +7490,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -6912,17 +7506,17 @@
       <c r="G27" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="10"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -6949,7 +7543,7 @@
         <v>101</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -6977,7 +7571,7 @@
         <v>149</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -7003,7 +7597,7 @@
     <row r="31" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -7025,7 +7619,7 @@
         <v>108</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -7053,7 +7647,7 @@
         <v>101</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -7081,7 +7675,7 @@
         <v>109</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -7103,7 +7697,7 @@
         <v>102</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -7125,7 +7719,7 @@
         <v>103</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -7145,7 +7739,7 @@
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -7161,7 +7755,7 @@
         <v>110</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -7183,7 +7777,7 @@
         <v>104</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -7205,7 +7799,7 @@
         <v>105</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -7227,7 +7821,7 @@
         <v>106</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -7247,7 +7841,7 @@
     <row r="42" spans="1:11">
       <c r="A42" s="1"/>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -7263,7 +7857,7 @@
         <v>111</v>
       </c>
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -7285,7 +7879,7 @@
         <v>107</v>
       </c>
       <c r="B44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -7307,7 +7901,7 @@
         <v>112</v>
       </c>
       <c r="B45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -7327,7 +7921,7 @@
     <row r="46" spans="1:11">
       <c r="A46" s="1"/>
       <c r="B46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -7343,7 +7937,7 @@
         <v>112</v>
       </c>
       <c r="B47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -7365,7 +7959,7 @@
         <v>113</v>
       </c>
       <c r="B48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -7412,31 +8006,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="8">
         <v>1</v>
       </c>
     </row>
@@ -7444,7 +8038,7 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <v>43371</v>
       </c>
     </row>
@@ -7452,7 +8046,7 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>43377</v>
       </c>
     </row>
@@ -7460,7 +8054,7 @@
       <c r="A5" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <f>COUNT(A18:A45)</f>
         <v>21</v>
       </c>
@@ -7469,7 +8063,7 @@
       <c r="A6" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7477,7 +8071,7 @@
       <c r="A7">
         <v>28</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>20</v>
       </c>
     </row>
@@ -7485,7 +8079,7 @@
       <c r="A8">
         <v>29</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>21</v>
       </c>
     </row>
@@ -7493,7 +8087,7 @@
       <c r="A9">
         <v>30</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>21</v>
       </c>
     </row>
@@ -7501,7 +8095,7 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>21</v>
       </c>
     </row>
@@ -7509,7 +8103,7 @@
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>21</v>
       </c>
     </row>
@@ -7517,7 +8111,7 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>21</v>
       </c>
     </row>
@@ -7525,7 +8119,7 @@
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>21</v>
       </c>
     </row>
@@ -7548,10 +8142,10 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -7587,14 +8181,14 @@
       <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <f t="shared" ref="A20:A61" si="0">A19+1</f>
+        <f t="shared" ref="A20:A38" si="0">A19+1</f>
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -7607,7 +8201,7 @@
         <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
@@ -7631,7 +8225,7 @@
         <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
         <v>52</v>
@@ -7699,10 +8293,10 @@
       <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="10"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
@@ -7947,7 +8541,7 @@
         <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -8069,7 +8663,7 @@
       <c r="A86" t="s">
         <v>42</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C86" t="s">
@@ -8086,7 +8680,7 @@
       <c r="A87" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C87" t="s">
@@ -8108,7 +8702,7 @@
       <c r="A90" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C90" t="s">
@@ -8133,16 +8727,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8274,16 +8868,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8415,16 +9009,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8556,16 +9150,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harisqureshi/Desktop/stickJumpForce/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1D35DA-86BB-1E48-ADAD-7338EFFE0198}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,9 @@
     <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="158">
   <si>
     <t>Product Name:</t>
   </si>
@@ -515,11 +509,14 @@
   <si>
     <t>Total Task</t>
   </si>
+  <si>
+    <t>Updated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -557,7 +554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +564,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -617,6 +620,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,18 +639,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -681,7 +675,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -689,33 +683,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -795,31 +767,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="125712256"/>
-        <c:axId val="125731200"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="121007104"/>
+        <c:axId val="121025664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125712256"/>
+        <c:axId val="121007104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -847,7 +810,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -855,30 +818,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -913,19 +855,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125731200"/>
+        <c:crossAx val="121025664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125731200"/>
+        <c:axId val="121025664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -971,7 +911,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -979,30 +919,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1031,7 +950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125712256"/>
+        <c:crossAx val="121007104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1045,7 +964,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1074,25 +992,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1120,7 +1028,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1128,33 +1036,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1210,51 +1096,42 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="125804928"/>
-        <c:axId val="125806848"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="121091968"/>
+        <c:axId val="121315328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125804928"/>
+        <c:axId val="121091968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1282,7 +1159,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1290,30 +1167,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1348,19 +1204,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125806848"/>
+        <c:crossAx val="121315328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125806848"/>
+        <c:axId val="121315328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="22"/>
+          <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1402,7 +1258,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1410,30 +1266,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1462,9 +1297,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125804928"/>
+        <c:crossAx val="121091968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1476,7 +1313,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1505,25 +1341,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1551,7 +1377,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1559,33 +1385,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1666,31 +1470,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C6F-AF48-B151-43D429BD06D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="104458496"/>
-        <c:axId val="125751680"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="152580864"/>
+        <c:axId val="152582784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104458496"/>
+        <c:axId val="152580864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1718,7 +1513,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1726,30 +1521,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1784,19 +1558,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125751680"/>
+        <c:crossAx val="152582784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125751680"/>
+        <c:axId val="152582784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1838,7 +1610,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1846,30 +1618,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1898,7 +1649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104458496"/>
+        <c:crossAx val="152580864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1912,7 +1663,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1941,25 +1691,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1987,7 +1727,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1995,33 +1734,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2102,31 +1819,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1178-D040-8156-1AEB260753B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="104644992"/>
-        <c:axId val="104646912"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="152706432"/>
+        <c:axId val="152729088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104644992"/>
+        <c:axId val="152706432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2154,7 +1862,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2162,30 +1869,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2220,19 +1906,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104646912"/>
+        <c:crossAx val="152729088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104646912"/>
+        <c:axId val="152729088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2274,7 +1958,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2282,30 +1965,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2334,7 +1996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104644992"/>
+        <c:crossAx val="152706432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2348,7 +2010,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2377,25 +2038,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2423,7 +2074,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2431,33 +2081,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2538,31 +2166,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3F18-774F-A342-170B03A00982}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="123955072"/>
-        <c:axId val="123973632"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="152831872"/>
+        <c:axId val="152870912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123955072"/>
+        <c:axId val="152831872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2590,7 +2209,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2598,30 +2216,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2656,19 +2253,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123973632"/>
+        <c:crossAx val="152870912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123973632"/>
+        <c:axId val="152870912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2710,7 +2305,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2718,30 +2312,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2770,7 +2343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123955072"/>
+        <c:crossAx val="152831872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2784,7 +2357,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2813,25 +2385,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2859,7 +2421,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2867,33 +2428,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2974,31 +2513,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C5C8-8047-B566-1F73CBEC0C97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="104935424"/>
-        <c:axId val="104937344"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="152691456"/>
+        <c:axId val="152693376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104935424"/>
+        <c:axId val="152691456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3026,7 +2556,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3034,30 +2563,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3092,19 +2600,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104937344"/>
+        <c:crossAx val="152693376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104937344"/>
+        <c:axId val="152693376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3146,7 +2652,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3154,30 +2659,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3206,7 +2690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104935424"/>
+        <c:crossAx val="152691456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3220,7 +2704,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3249,7 +2732,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6611,7 +6094,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6652,7 +6135,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6693,7 +6176,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6736,7 +6219,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6779,7 +6262,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6822,7 +6305,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7100,33 +6583,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="19">
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8006,24 +7489,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8080,7 +7563,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8088,7 +7571,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8096,7 +7579,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8104,7 +7587,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8112,7 +7595,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8120,7 +7603,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8200,7 +7683,7 @@
       <c r="D20" t="s">
         <v>129</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="15" t="s">
         <v>53</v>
       </c>
       <c r="I20" t="s">
@@ -8224,7 +7707,7 @@
       <c r="D21" t="s">
         <v>131</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="15" t="s">
         <v>53</v>
       </c>
       <c r="I21" t="s">
@@ -8275,6 +7758,10 @@
       <c r="E23" t="s">
         <v>22</v>
       </c>
+      <c r="I23" s="15"/>
+      <c r="J23" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
@@ -8293,10 +7780,6 @@
       <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
@@ -8315,12 +7798,10 @@
       <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="I25" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" t="s">
-        <v>116</v>
-      </c>
+      <c r="I25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
@@ -8340,10 +7821,10 @@
         <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -8364,10 +7845,10 @@
         <v>22</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -8388,10 +7869,10 @@
         <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -8412,10 +7893,10 @@
         <v>22</v>
       </c>
       <c r="I29" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="J29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -8435,6 +7916,12 @@
       <c r="E30" t="s">
         <v>22</v>
       </c>
+      <c r="I30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
@@ -8522,7 +8009,7 @@
       <c r="D35" t="s">
         <v>153</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8719,7 +8206,7 @@
   <mergeCells count="3">
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8727,16 +8214,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8868,16 +8355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9009,16 +8496,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9150,16 +8637,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipti.3QTRUS\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C8AFE9-5218-415E-BDFD-779A9D3A95E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -14,10 +20,15 @@
     <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -516,7 +527,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -611,6 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -620,7 +632,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,8 +650,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -675,7 +696,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -684,10 +705,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -767,14 +790,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="121007104"/>
         <c:axId val="121025664"/>
       </c:lineChart>
@@ -783,6 +814,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -810,7 +842,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -821,6 +853,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -860,12 +893,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="121025664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -911,7 +946,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -922,6 +957,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -964,6 +1000,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -999,8 +1036,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1028,7 +1075,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1037,10 +1084,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1116,14 +1165,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="121091968"/>
         <c:axId val="121315328"/>
       </c:lineChart>
@@ -1132,6 +1189,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1159,7 +1217,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1170,6 +1228,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1209,6 +1268,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="121315328"/>
@@ -1217,6 +1277,7 @@
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1258,7 +1319,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1269,6 +1330,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1313,6 +1375,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1348,8 +1411,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1377,7 +1450,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1386,10 +1459,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1470,14 +1545,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C6F-AF48-B151-43D429BD06D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="152580864"/>
         <c:axId val="152582784"/>
       </c:lineChart>
@@ -1486,6 +1569,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1513,7 +1597,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1524,6 +1608,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1563,12 +1648,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="152582784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1610,7 +1697,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1621,6 +1708,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1663,6 +1751,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1698,8 +1787,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1727,6 +1826,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1735,10 +1835,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1819,14 +1921,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1178-D040-8156-1AEB260753B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="152706432"/>
         <c:axId val="152729088"/>
       </c:lineChart>
@@ -1835,6 +1945,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1862,6 +1973,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1872,6 +1984,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1911,12 +2024,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="152729088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1958,6 +2073,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1968,6 +2084,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2010,6 +2127,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2045,8 +2163,18 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2074,6 +2202,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2082,10 +2211,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2166,14 +2297,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3F18-774F-A342-170B03A00982}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="152831872"/>
         <c:axId val="152870912"/>
       </c:lineChart>
@@ -2182,6 +2321,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2209,6 +2349,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2219,6 +2360,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2258,12 +2400,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="152870912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2305,6 +2449,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2315,6 +2460,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2357,6 +2503,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2392,8 +2539,18 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2421,6 +2578,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2429,10 +2587,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2513,14 +2673,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C5C8-8047-B566-1F73CBEC0C97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="152691456"/>
         <c:axId val="152693376"/>
       </c:lineChart>
@@ -2529,6 +2697,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2556,6 +2725,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2566,6 +2736,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2605,12 +2776,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="152693376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2652,6 +2825,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2662,6 +2836,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2704,6 +2879,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2738,3342 +2914,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6094,7 +2934,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6135,7 +2975,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6176,7 +3016,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6219,7 +3059,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6262,7 +3102,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6305,7 +3145,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6583,51 +3423,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4"/>
@@ -6810,10 +3650,10 @@
       <c r="H20" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -6857,10 +3697,10 @@
       <c r="G22" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="12"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -6989,10 +3829,10 @@
       <c r="G27" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -7489,24 +4329,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7625,10 +4465,10 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -7662,12 +4502,12 @@
         <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -7683,7 +4523,7 @@
       <c r="D20" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I20" t="s">
@@ -7707,7 +4547,7 @@
       <c r="D21" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I21" t="s">
@@ -7758,7 +4598,7 @@
       <c r="E23" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="12"/>
       <c r="J23" t="s">
         <v>157</v>
       </c>
@@ -7798,10 +4638,10 @@
       <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
@@ -7842,7 +4682,7 @@
         <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s">
         <v>117</v>
@@ -8009,7 +4849,7 @@
       <c r="D35" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8046,7 +4886,7 @@
         <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8214,16 +5054,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8355,16 +5195,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8496,16 +5336,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8637,16 +5477,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipti.3QTRUS\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C8AFE9-5218-415E-BDFD-779A9D3A95E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,9 @@
     <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -527,7 +521,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -650,18 +644,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -696,7 +680,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -705,12 +688,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -790,31 +771,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="121007104"/>
-        <c:axId val="121025664"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="112495616"/>
+        <c:axId val="112501888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121007104"/>
+        <c:axId val="112495616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -842,7 +814,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -853,7 +824,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -888,19 +858,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121025664"/>
+        <c:crossAx val="112501888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121025664"/>
+        <c:axId val="112501888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -946,7 +914,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -957,7 +924,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -986,7 +952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121007104"/>
+        <c:crossAx val="112495616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1000,7 +966,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1029,25 +994,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1075,7 +1030,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1084,12 +1039,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1148,48 +1101,39 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="121091968"/>
-        <c:axId val="121315328"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="112195456"/>
+        <c:axId val="112664576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121091968"/>
+        <c:axId val="112195456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1217,7 +1161,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1228,7 +1172,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1263,21 +1206,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121315328"/>
+        <c:crossAx val="112664576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121315328"/>
+        <c:axId val="112664576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1319,7 +1260,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1330,7 +1271,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1359,7 +1299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121091968"/>
+        <c:crossAx val="112195456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1375,7 +1315,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1404,25 +1343,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1450,7 +1379,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1459,12 +1387,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1545,31 +1471,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C6F-AF48-B151-43D429BD06D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="152580864"/>
-        <c:axId val="152582784"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="112595712"/>
+        <c:axId val="112597632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152580864"/>
+        <c:axId val="112595712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1597,7 +1514,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1608,7 +1524,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1643,19 +1558,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152582784"/>
+        <c:crossAx val="112597632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152582784"/>
+        <c:axId val="112597632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1697,7 +1610,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1708,7 +1620,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1737,7 +1648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152580864"/>
+        <c:crossAx val="112595712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1751,7 +1662,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1780,25 +1690,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1826,7 +1726,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1835,12 +1734,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1921,31 +1818,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1178-D040-8156-1AEB260753B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="152706432"/>
-        <c:axId val="152729088"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="112864640"/>
+        <c:axId val="112879104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152706432"/>
+        <c:axId val="112864640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1973,7 +1861,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1984,7 +1871,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2019,19 +1905,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152729088"/>
+        <c:crossAx val="112879104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152729088"/>
+        <c:axId val="112879104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2073,7 +1957,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2084,7 +1967,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2113,7 +1995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152706432"/>
+        <c:crossAx val="112864640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2127,7 +2009,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2156,25 +2037,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2202,7 +2073,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2211,12 +2081,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2297,31 +2165,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3F18-774F-A342-170B03A00982}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="152831872"/>
-        <c:axId val="152870912"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="114104192"/>
+        <c:axId val="114139136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152831872"/>
+        <c:axId val="114104192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2349,7 +2208,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2360,7 +2218,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2395,19 +2252,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152870912"/>
+        <c:crossAx val="114139136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152870912"/>
+        <c:axId val="114139136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2449,7 +2304,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2460,7 +2314,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2489,7 +2342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152831872"/>
+        <c:crossAx val="114104192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2503,7 +2356,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2532,25 +2384,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2578,7 +2420,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2587,12 +2428,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2673,31 +2512,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C5C8-8047-B566-1F73CBEC0C97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="152691456"/>
-        <c:axId val="152693376"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="114017024"/>
+        <c:axId val="114018944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152691456"/>
+        <c:axId val="114017024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2725,7 +2555,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2736,7 +2565,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2771,19 +2599,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152693376"/>
+        <c:crossAx val="114018944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152693376"/>
+        <c:axId val="114018944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2825,7 +2651,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2836,7 +2661,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2865,7 +2689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152691456"/>
+        <c:crossAx val="114017024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2879,7 +2703,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2908,7 +2731,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2934,7 +2757,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +2798,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +2839,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +2882,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3102,7 +2925,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3145,7 +2968,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3423,33 +3246,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18.75">
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4329,24 +4152,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4411,7 +4234,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4419,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4427,7 +4250,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4435,7 +4258,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4443,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4501,7 +4324,7 @@
       <c r="D19" t="s">
         <v>128</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I19" s="13" t="s">
@@ -5054,16 +4877,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5195,16 +5018,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5336,16 +5159,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5477,16 +5300,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882CABAA-D4E6-4AB9-B9C3-74EF9C32CDF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5064" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -14,15 +20,10 @@
     <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -521,7 +522,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -644,8 +645,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -680,6 +691,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -688,10 +700,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -771,14 +785,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="112495616"/>
         <c:axId val="112501888"/>
       </c:lineChart>
@@ -787,6 +809,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -814,6 +837,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -824,6 +848,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -863,12 +888,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="112501888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -914,6 +941,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -924,6 +952,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -966,6 +995,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1001,8 +1031,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1030,7 +1070,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1039,10 +1079,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1118,14 +1160,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="112195456"/>
         <c:axId val="112664576"/>
       </c:lineChart>
@@ -1134,6 +1184,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1161,7 +1212,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1172,6 +1223,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1211,6 +1263,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="112664576"/>
@@ -1219,6 +1272,7 @@
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1260,7 +1314,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1271,6 +1325,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1315,6 +1370,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1350,8 +1406,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1379,6 +1445,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1387,10 +1454,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1471,14 +1540,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C6F-AF48-B151-43D429BD06D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="112595712"/>
         <c:axId val="112597632"/>
       </c:lineChart>
@@ -1487,6 +1564,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1514,6 +1592,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1524,6 +1603,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1563,12 +1643,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="112597632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1610,6 +1692,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1620,6 +1703,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1662,6 +1746,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1697,8 +1782,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1726,6 +1821,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1734,10 +1830,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1818,14 +1916,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1178-D040-8156-1AEB260753B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="112864640"/>
         <c:axId val="112879104"/>
       </c:lineChart>
@@ -1834,6 +1940,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1861,6 +1968,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1871,6 +1979,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1910,12 +2019,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="112879104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1957,6 +2068,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1967,6 +2079,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2009,6 +2122,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2044,8 +2158,18 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2073,6 +2197,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2081,10 +2206,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2165,14 +2292,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3F18-774F-A342-170B03A00982}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="114104192"/>
         <c:axId val="114139136"/>
       </c:lineChart>
@@ -2181,6 +2316,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2208,6 +2344,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2218,6 +2355,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2257,12 +2395,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="114139136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2304,6 +2444,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2314,6 +2455,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2356,6 +2498,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2391,8 +2534,18 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2420,6 +2573,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2428,10 +2582,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2512,14 +2668,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C5C8-8047-B566-1F73CBEC0C97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="114017024"/>
         <c:axId val="114018944"/>
       </c:lineChart>
@@ -2528,6 +2692,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2555,6 +2720,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2565,6 +2731,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2604,12 +2771,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="114018944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2651,6 +2820,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2661,6 +2831,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2703,6 +2874,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2757,7 +2929,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2970,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2839,7 +3011,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2882,7 +3054,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +3097,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,7 +3140,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3246,14 +3418,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
@@ -4152,11 +4324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -4395,7 +4567,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s">
         <v>53</v>
@@ -4419,7 +4591,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" t="s">
@@ -4441,7 +4613,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4727,7 +4899,7 @@
         <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4877,7 +5049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5018,7 +5190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5159,7 +5331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5300,7 +5472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882CABAA-D4E6-4AB9-B9C3-74EF9C32CDF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5064" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5064" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,9 @@
     <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -522,7 +516,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -645,18 +639,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -691,7 +675,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -700,12 +683,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -785,31 +766,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="112495616"/>
-        <c:axId val="112501888"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="113343104"/>
+        <c:axId val="113353472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112495616"/>
+        <c:axId val="113343104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -837,7 +809,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -848,7 +819,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -883,19 +853,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112501888"/>
+        <c:crossAx val="113353472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112501888"/>
+        <c:axId val="113353472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -941,7 +909,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -952,7 +919,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -981,7 +947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112495616"/>
+        <c:crossAx val="113343104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -995,7 +961,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1024,25 +989,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1070,7 +1025,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1079,12 +1034,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1160,31 +1113,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="112195456"/>
-        <c:axId val="112664576"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="113300992"/>
+        <c:axId val="113302912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112195456"/>
+        <c:axId val="113300992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1212,7 +1156,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1223,7 +1167,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1258,21 +1201,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112664576"/>
+        <c:crossAx val="113302912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112664576"/>
+        <c:axId val="113302912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1314,7 +1255,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1325,7 +1266,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1354,7 +1294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112195456"/>
+        <c:crossAx val="113300992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1370,7 +1310,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1399,25 +1338,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1445,7 +1374,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1454,12 +1383,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1540,31 +1467,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C6F-AF48-B151-43D429BD06D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="112595712"/>
-        <c:axId val="112597632"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="113971584"/>
+        <c:axId val="113973504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112595712"/>
+        <c:axId val="113971584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1592,7 +1510,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1603,7 +1521,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1638,19 +1555,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112597632"/>
+        <c:crossAx val="113973504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112597632"/>
+        <c:axId val="113973504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1692,7 +1607,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1703,7 +1618,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1732,7 +1646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112595712"/>
+        <c:crossAx val="113971584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1746,7 +1660,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1775,25 +1688,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1821,7 +1724,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1830,12 +1732,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1916,31 +1816,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1178-D040-8156-1AEB260753B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="112864640"/>
-        <c:axId val="112879104"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="114048000"/>
+        <c:axId val="114058368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112864640"/>
+        <c:axId val="114048000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1968,7 +1859,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1979,7 +1869,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2014,19 +1903,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112879104"/>
+        <c:crossAx val="114058368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112879104"/>
+        <c:axId val="114058368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2068,7 +1955,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2079,7 +1965,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2108,7 +1993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112864640"/>
+        <c:crossAx val="114048000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2122,7 +2007,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2151,25 +2035,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2197,7 +2071,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2206,12 +2079,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2292,31 +2163,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3F18-774F-A342-170B03A00982}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="114104192"/>
-        <c:axId val="114139136"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="115348992"/>
+        <c:axId val="115350912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114104192"/>
+        <c:axId val="115348992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2344,7 +2206,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2355,7 +2216,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2390,19 +2250,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114139136"/>
+        <c:crossAx val="115350912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114139136"/>
+        <c:axId val="115350912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2444,7 +2302,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2455,7 +2312,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2484,7 +2340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114104192"/>
+        <c:crossAx val="115348992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2498,7 +2354,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2527,25 +2382,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2573,7 +2418,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2582,12 +2426,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2668,31 +2510,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C5C8-8047-B566-1F73CBEC0C97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="114017024"/>
-        <c:axId val="114018944"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="115261824"/>
+        <c:axId val="115263744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114017024"/>
+        <c:axId val="115261824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2720,7 +2553,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2731,7 +2563,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2766,19 +2597,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114018944"/>
+        <c:crossAx val="115263744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114018944"/>
+        <c:axId val="115263744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2820,7 +2649,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2831,7 +2659,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2860,7 +2687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114017024"/>
+        <c:crossAx val="115261824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2874,7 +2701,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2903,7 +2729,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2929,7 +2755,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2970,7 +2796,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,7 +2837,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3054,7 +2880,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,7 +2923,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +2966,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,14 +3244,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
@@ -4324,11 +4150,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -4479,7 +4305,7 @@
         <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5049,7 +4875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5190,7 +5016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5331,7 +5157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5472,7 +5298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -772,13 +772,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="113343104"/>
-        <c:axId val="113353472"/>
+        <c:axId val="112557056"/>
+        <c:axId val="112563328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113343104"/>
+        <c:axId val="112557056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,14 +852,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113353472"/>
+        <c:crossAx val="112563328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113353472"/>
+        <c:axId val="112563328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113343104"/>
+        <c:crossAx val="112557056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -989,7 +988,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1099,16 +1098,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,13 +1118,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="113300992"/>
-        <c:axId val="113302912"/>
+        <c:axId val="112969600"/>
+        <c:axId val="112988160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113300992"/>
+        <c:axId val="112969600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,14 +1199,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113302912"/>
+        <c:crossAx val="112988160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113302912"/>
+        <c:axId val="112988160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1294,7 +1292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113300992"/>
+        <c:crossAx val="112969600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1338,7 +1336,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1473,13 +1471,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="113971584"/>
-        <c:axId val="113973504"/>
+        <c:axId val="113181440"/>
+        <c:axId val="113183360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113971584"/>
+        <c:axId val="113181440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,14 +1552,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113973504"/>
+        <c:crossAx val="113183360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113973504"/>
+        <c:axId val="113183360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +1643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113971584"/>
+        <c:crossAx val="113181440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1688,7 +1685,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1822,13 +1819,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="114048000"/>
-        <c:axId val="114058368"/>
+        <c:axId val="113237376"/>
+        <c:axId val="113329664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114048000"/>
+        <c:axId val="113237376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,14 +1899,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114058368"/>
+        <c:crossAx val="113329664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114058368"/>
+        <c:axId val="113329664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +1989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114048000"/>
+        <c:crossAx val="113237376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2035,7 +2031,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2169,13 +2165,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="115348992"/>
-        <c:axId val="115350912"/>
+        <c:axId val="113375104"/>
+        <c:axId val="113467392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115348992"/>
+        <c:axId val="113375104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,14 +2245,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115350912"/>
+        <c:crossAx val="113467392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115350912"/>
+        <c:axId val="113467392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,7 +2335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115348992"/>
+        <c:crossAx val="113375104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2382,7 +2377,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2516,13 +2511,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="115261824"/>
-        <c:axId val="115263744"/>
+        <c:axId val="113287936"/>
+        <c:axId val="113289856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115261824"/>
+        <c:axId val="113287936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2597,14 +2591,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115263744"/>
+        <c:crossAx val="113289856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115263744"/>
+        <c:axId val="113289856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +2681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115261824"/>
+        <c:crossAx val="113287936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2729,7 +2723,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2755,7 +2749,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,7 +2790,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,7 +2831,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,7 +2874,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2917,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,7 +2960,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,7 +3238,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4153,8 +4147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -4240,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4248,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4256,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4264,7 +4258,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4304,7 +4298,7 @@
       <c r="D18" t="s">
         <v>127</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4611,13 +4605,13 @@
         <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
         <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4653,7 +4647,7 @@
         <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5064" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5064"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -675,6 +675,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -773,11 +774,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112557056"/>
-        <c:axId val="112563328"/>
+        <c:axId val="152471808"/>
+        <c:axId val="152474368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112557056"/>
+        <c:axId val="152471808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,6 +809,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -852,14 +854,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112563328"/>
+        <c:crossAx val="152474368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112563328"/>
+        <c:axId val="152474368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,6 +910,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -946,7 +949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112557056"/>
+        <c:crossAx val="152471808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -988,7 +991,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1101,13 +1104,13 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,11 +1122,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112969600"/>
-        <c:axId val="112988160"/>
+        <c:axId val="152126592"/>
+        <c:axId val="152128512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112969600"/>
+        <c:axId val="152126592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,14 +1202,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112988160"/>
+        <c:crossAx val="152128512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112988160"/>
+        <c:axId val="152128512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1292,7 +1295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112969600"/>
+        <c:crossAx val="152126592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1336,362 +1339,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint Burn Down Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 2'!$A$5:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Total Tasks</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 Left</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 Left</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3 Left</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4 Left</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5 Left</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6 Left</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7 Left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 2'!$B$5:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C6F-AF48-B151-43D429BD06D6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="113181440"/>
-        <c:axId val="113183360"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="113181440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113183360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="113183360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tasks Remaining</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113181440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1750,7 +1404,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 3'!$A$5:$A$12</c:f>
+              <c:f>'Sprint 2'!$A$5:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1782,7 +1436,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$B$5:$B$12</c:f>
+              <c:f>'Sprint 2'!$B$5:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1815,16 +1469,16 @@
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1178-D040-8156-1AEB260753B1}"/>
+              <c16:uniqueId val="{00000000-8C6F-AF48-B151-43D429BD06D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113237376"/>
-        <c:axId val="113329664"/>
+        <c:axId val="152538496"/>
+        <c:axId val="152565248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113237376"/>
+        <c:axId val="152538496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,14 +1553,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113329664"/>
+        <c:crossAx val="152565248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113329664"/>
+        <c:axId val="152565248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,7 +1643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113237376"/>
+        <c:crossAx val="152538496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2031,13 +1685,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2096,7 +1750,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 4'!$A$5:$A$12</c:f>
+              <c:f>'Sprint 3'!$A$5:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2128,7 +1782,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$B$5:$B$12</c:f>
+              <c:f>'Sprint 3'!$B$5:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2161,16 +1815,16 @@
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F18-774F-A342-170B03A00982}"/>
+              <c16:uniqueId val="{00000000-1178-D040-8156-1AEB260753B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113375104"/>
-        <c:axId val="113467392"/>
+        <c:axId val="152766336"/>
+        <c:axId val="152768512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113375104"/>
+        <c:axId val="152766336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,14 +1899,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113467392"/>
+        <c:crossAx val="152768512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113467392"/>
+        <c:axId val="152768512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,7 +1989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113375104"/>
+        <c:crossAx val="152766336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2377,13 +2031,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2442,7 +2096,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 5'!$A$5:$A$12</c:f>
+              <c:f>'Sprint 4'!$A$5:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2474,7 +2128,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 5'!$B$5:$B$12</c:f>
+              <c:f>'Sprint 4'!$B$5:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2507,16 +2161,16 @@
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C5C8-8047-B566-1F73CBEC0C97}"/>
+              <c16:uniqueId val="{00000000-3F18-774F-A342-170B03A00982}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113287936"/>
-        <c:axId val="113289856"/>
+        <c:axId val="152817664"/>
+        <c:axId val="152819584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113287936"/>
+        <c:axId val="152817664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,14 +2245,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113289856"/>
+        <c:crossAx val="152819584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113289856"/>
+        <c:axId val="152819584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113287936"/>
+        <c:crossAx val="152817664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2723,7 +2377,353 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Down Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 5'!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Total Tasks</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1 Left</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 2 Left</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 3 Left</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 4 Left</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 5 Left</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 6 Left</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 7 Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 5'!$B$5:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5C8-8047-B566-1F73CBEC0C97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="153053440"/>
+        <c:axId val="153055616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153053440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153055616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="153055616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153053440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2749,7 +2749,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2790,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2831,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +2874,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2917,7 +2917,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3238,7 +3238,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3248,7 +3248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -4147,8 +4147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -4242,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipti.3QTRUS\Desktop\Classes\IntroSoftwareEngr\stickJumpForce\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64B6578-114F-4CC6-9730-243838DAD21E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5064"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="5070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -14,17 +20,22 @@
     <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="159">
   <si>
     <t>Product Name:</t>
   </si>
@@ -512,11 +523,14 @@
   <si>
     <t>Updated</t>
   </si>
+  <si>
+    <t>Building the environment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -586,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -615,6 +629,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,8 +656,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -675,7 +702,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -684,10 +711,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -767,21 +796,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="152471808"/>
-        <c:axId val="152474368"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="112557056"/>
+        <c:axId val="112563328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152471808"/>
+        <c:axId val="112557056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -809,7 +848,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -820,6 +859,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -854,17 +894,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152474368"/>
+        <c:crossAx val="112563328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152474368"/>
+        <c:axId val="112563328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -910,7 +952,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -921,6 +963,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -949,7 +992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152471808"/>
+        <c:crossAx val="112557056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -963,6 +1006,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -991,15 +1035,25 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1027,7 +1081,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1036,10 +1090,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1104,32 +1160,42 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="152126592"/>
-        <c:axId val="152128512"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="112969600"/>
+        <c:axId val="112988160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152126592"/>
+        <c:axId val="112969600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1157,7 +1223,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1168,6 +1234,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1202,19 +1269,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152128512"/>
+        <c:crossAx val="112988160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152128512"/>
+        <c:axId val="112988160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1256,7 +1325,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1267,6 +1336,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1295,7 +1365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152126592"/>
+        <c:crossAx val="112969600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1311,6 +1381,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1339,15 +1410,25 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1375,6 +1456,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1383,10 +1465,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1467,21 +1551,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C6F-AF48-B151-43D429BD06D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="152538496"/>
-        <c:axId val="152565248"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="113181440"/>
+        <c:axId val="113183360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152538496"/>
+        <c:axId val="113181440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1509,6 +1603,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1519,6 +1614,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1553,17 +1649,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152565248"/>
+        <c:crossAx val="113183360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152565248"/>
+        <c:axId val="113183360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1605,6 +1703,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1615,6 +1714,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1643,7 +1743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152538496"/>
+        <c:crossAx val="113181440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1657,6 +1757,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1685,15 +1786,25 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1721,6 +1832,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1729,10 +1841,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1813,21 +1927,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1178-D040-8156-1AEB260753B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="152766336"/>
-        <c:axId val="152768512"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="113237376"/>
+        <c:axId val="113329664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152766336"/>
+        <c:axId val="113237376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1855,6 +1979,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1865,6 +1990,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1899,17 +2025,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152768512"/>
+        <c:crossAx val="113329664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152768512"/>
+        <c:axId val="113329664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1951,6 +2079,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1961,6 +2090,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1989,7 +2119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152766336"/>
+        <c:crossAx val="113237376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2003,6 +2133,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2031,15 +2162,25 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2067,6 +2208,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2075,10 +2217,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2159,21 +2303,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3F18-774F-A342-170B03A00982}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="152817664"/>
-        <c:axId val="152819584"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="113375104"/>
+        <c:axId val="113467392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152817664"/>
+        <c:axId val="113375104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2201,6 +2355,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2211,6 +2366,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2245,17 +2401,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152819584"/>
+        <c:crossAx val="113467392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152819584"/>
+        <c:axId val="113467392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2297,6 +2455,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2307,6 +2466,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2335,7 +2495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152817664"/>
+        <c:crossAx val="113375104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2349,6 +2509,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2377,15 +2538,25 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2413,6 +2584,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2421,10 +2593,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2505,21 +2679,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C5C8-8047-B566-1F73CBEC0C97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="153053440"/>
-        <c:axId val="153055616"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="113287936"/>
+        <c:axId val="113289856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153053440"/>
+        <c:axId val="113287936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2547,6 +2731,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2557,6 +2742,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2591,17 +2777,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153055616"/>
+        <c:crossAx val="113289856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153055616"/>
+        <c:axId val="113289856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2643,6 +2831,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2653,6 +2842,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2681,7 +2871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153053440"/>
+        <c:crossAx val="113287936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2695,6 +2885,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2723,7 +2914,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2749,7 +2940,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2981,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +3022,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +3065,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2917,7 +3108,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +3151,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3238,51 +3429,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4"/>
@@ -3465,10 +3656,10 @@
       <c r="H20" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="14"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -3512,10 +3703,10 @@
       <c r="G22" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="13"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -3644,10 +3835,10 @@
       <c r="G27" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="13"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -4144,24 +4335,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4194,7 +4385,7 @@
       </c>
       <c r="B5" s="11">
         <f>COUNT(A18:A45)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4242,7 +4433,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4250,7 +4441,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4258,7 +4449,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4280,10 +4471,10 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="14"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -4319,10 +4510,10 @@
       <c r="E19" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="13"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -4453,10 +4644,10 @@
       <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="13"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
@@ -4701,7 +4892,7 @@
         <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4723,30 +4914,97 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="B39" s="7"/>
+      <c r="A39">
+        <v>22</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="B40" s="7"/>
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="B41" s="7"/>
+      <c r="A41">
+        <f t="shared" ref="A41:A47" si="1">A40+1</f>
+        <v>24</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="B42" s="7"/>
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="B43" s="7"/>
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B43" s="13"/>
     </row>
     <row r="44" spans="1:5">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
       <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:5">
+      <c r="A45">
+        <v>24</v>
+      </c>
       <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:5">
+      <c r="A46">
+        <v>25</v>
+      </c>
       <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:5">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:5">
@@ -4869,16 +5127,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5010,16 +5268,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5151,16 +5409,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5292,16 +5550,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipti.3QTRUS\Desktop\Classes\IntroSoftwareEngr\stickJumpForce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64B6578-114F-4CC6-9730-243838DAD21E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3DB071-AD93-4C2C-BAE2-42366CC14DC7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="5070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8484" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -3443,19 +3443,19 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18.75">
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4338,21 +4338,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4577,8 +4577,8 @@
       <c r="D22" t="s">
         <v>133</v>
       </c>
-      <c r="E22" t="s">
-        <v>52</v>
+      <c r="E22" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="I22" t="s">
         <v>53</v>
@@ -4601,8 +4601,8 @@
       <c r="D23" t="s">
         <v>134</v>
       </c>
-      <c r="E23" t="s">
-        <v>52</v>
+      <c r="E23" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" t="s">
@@ -4623,8 +4623,8 @@
       <c r="D24" t="s">
         <v>135</v>
       </c>
-      <c r="E24" t="s">
-        <v>52</v>
+      <c r="E24" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4641,8 +4641,8 @@
       <c r="D25" t="s">
         <v>139</v>
       </c>
-      <c r="E25" t="s">
-        <v>22</v>
+      <c r="E25" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>12</v>
@@ -5134,9 +5134,9 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5275,9 +5275,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5416,9 +5416,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5557,9 +5557,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,28 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3DB071-AD93-4C2C-BAE2-42366CC14DC7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8484" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sprint 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sprint 3" sheetId="4" r:id="rId4"/>
-    <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Sprint 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint 2" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="149">
   <si>
     <t>Product Name:</t>
   </si>
@@ -64,9 +55,6 @@
     <t>Left</t>
   </si>
   <si>
-    <t xml:space="preserve">Available </t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -85,9 +73,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -115,34 +100,7 @@
     <t>End on</t>
   </si>
   <si>
-    <t>Total Tasks</t>
-  </si>
-  <si>
-    <t>Day 1 Left</t>
-  </si>
-  <si>
-    <t>Day 2 Left</t>
-  </si>
-  <si>
-    <t>Day 3 Left</t>
-  </si>
-  <si>
-    <t>Day 4 Left</t>
-  </si>
-  <si>
-    <t>Day 5 Left</t>
-  </si>
-  <si>
-    <t>Day 6 Left</t>
-  </si>
-  <si>
-    <t>Day 7 Left</t>
-  </si>
-  <si>
     <t>Task ID</t>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
   <si>
     <t>Assigned To</t>
@@ -524,13 +482,16 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>Building the environment</t>
+    <t>Stalled</t>
+  </si>
+  <si>
+    <t>Complete tutorial section 4: Building the environment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -568,7 +529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +548,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -600,13 +567,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -635,9 +601,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,18 +629,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -702,7 +665,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -711,12 +674,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -745,9 +706,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Product Backlog'!$A$8:$A$13</c:f>
+              <c:f>'Product Backlog'!$A$8:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -765,62 +726,59 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Product Backlog'!$B$8:$B$13</c:f>
+              <c:f>'Product Backlog'!$B$8:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="112557056"/>
-        <c:axId val="112563328"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="113548288"/>
+        <c:axId val="113554560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112557056"/>
+        <c:axId val="113548288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -848,7 +806,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -859,7 +817,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -894,19 +851,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112563328"/>
+        <c:crossAx val="113554560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112563328"/>
+        <c:axId val="113554560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -952,7 +907,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -963,7 +918,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -992,7 +946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112557056"/>
+        <c:crossAx val="113548288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1006,7 +960,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1035,25 +988,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1081,7 +1024,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1090,12 +1033,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1160,42 +1101,33 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="112969600"/>
-        <c:axId val="112988160"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="113174400"/>
+        <c:axId val="113582080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112969600"/>
+        <c:axId val="113174400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1223,7 +1155,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1234,7 +1166,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1269,21 +1200,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112988160"/>
+        <c:crossAx val="113582080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112988160"/>
+        <c:axId val="113582080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1325,7 +1254,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1336,7 +1265,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1365,7 +1293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112969600"/>
+        <c:crossAx val="113174400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1381,7 +1309,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1410,25 +1337,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1456,7 +1373,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1465,12 +1382,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1487,95 +1402,86 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 2'!$A$5:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Total Tasks</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 Left</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 Left</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3 Left</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4 Left</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5 Left</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6 Left</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7 Left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$B$5:$B$12</c:f>
+              <c:f>'Sprint 2'!$A$7:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C6F-AF48-B151-43D429BD06D6}"/>
+              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="113181440"/>
-        <c:axId val="113183360"/>
+        <c:marker val="1"/>
+        <c:axId val="100354688"/>
+        <c:axId val="6169344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113181440"/>
+        <c:axId val="100354688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1603,7 +1509,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1614,7 +1520,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1649,19 +1554,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113183360"/>
+        <c:crossAx val="6169344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113183360"/>
+        <c:axId val="6169344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="22"/>
+          <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1703,7 +1608,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1714,7 +1619,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1743,9 +1647,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113181440"/>
+        <c:crossAx val="100354688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1757,7 +1663,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1786,1135 +1691,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint Burn Down Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 3'!$A$5:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Total Tasks</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 Left</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 Left</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3 Left</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4 Left</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5 Left</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6 Left</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7 Left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 3'!$B$5:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1178-D040-8156-1AEB260753B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="113237376"/>
-        <c:axId val="113329664"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="113237376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113329664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="113329664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tasks Remaining</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113237376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint Burn Down Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 4'!$A$5:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Total Tasks</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 Left</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 Left</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3 Left</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4 Left</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5 Left</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6 Left</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7 Left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 4'!$B$5:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F18-774F-A342-170B03A00982}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="113375104"/>
-        <c:axId val="113467392"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="113375104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113467392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="113467392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tasks Remaining</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113375104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint Burn Down Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 5'!$A$5:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Total Tasks</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 Left</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 Left</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3 Left</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4 Left</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5 Left</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6 Left</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7 Left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 5'!$B$5:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C5C8-8047-B566-1F73CBEC0C97}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="113287936"/>
-        <c:axId val="113289856"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="113287936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113289856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="113289856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tasks Remaining</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113287936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2940,7 +1717,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2981,7 +1758,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,157 +1784,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3429,23 +2075,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
@@ -3455,30 +2102,30 @@
     <col min="11" max="11" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3491,141 +2138,111 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <f>C8</f>
         <v>28</v>
       </c>
       <c r="C8">
-        <f>COUNT(B21:B106)</f>
-        <v>28</v>
-      </c>
-      <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B14" si="0">C8-D9</f>
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <f>C8-D8</f>
-        <v>28</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="9">
+        <f>B8-C9</f>
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
         <v>43377</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:C14" si="1">C9-D9</f>
-        <v>28</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="9">
+        <f t="shared" ref="B10:B14" si="0">B9-C10</f>
+        <v>26</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="8">
         <v>43384</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="9">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="8">
         <v>43398</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="9">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8">
         <v>43412</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="9">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8">
         <v>43419</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="9">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8">
         <v>43437</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3633,446 +2250,454 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="15"/>
+      <c r="J20" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>22</v>
+      <c r="C21" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B22">
         <f>B21+1</f>
         <v>2</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>22</v>
+      <c r="C22" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B48" si="2">B22+1</f>
+        <f t="shared" ref="B23:B48" si="1">B22+1</f>
         <v>3</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>22</v>
+      <c r="C23" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>22</v>
+      <c r="C24" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K24" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>22</v>
+      <c r="C25" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>22</v>
+      <c r="C26" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>22</v>
+      <c r="C27" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="14"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>22</v>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>22</v>
+      <c r="C29" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
-      </c>
-      <c r="J29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K29" t="s">
-        <v>116</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>22</v>
+      <c r="C30" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>22</v>
+      <c r="C31" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" s="1"/>
       <c r="J31" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K31" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>22</v>
+      <c r="C32" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>22</v>
+      <c r="C33" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="K33" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>22</v>
+      <c r="C34" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="J34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>22</v>
+      <c r="C35" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>22</v>
+      <c r="C36" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
       <c r="B37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>22</v>
+      <c r="C37" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -4081,100 +2706,100 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>22</v>
+      <c r="C38" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>22</v>
+      <c r="C39" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D39">
         <v>4</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>22</v>
+      <c r="C40" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>22</v>
+      <c r="C41" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1"/>
       <c r="B42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>22</v>
+      <c r="C42" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -4183,78 +2808,78 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>22</v>
+      <c r="C43" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>22</v>
+      <c r="C44" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D44">
         <v>5</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>22</v>
+      <c r="C45" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1"/>
       <c r="B46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>22</v>
+      <c r="C46" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -4263,66 +2888,66 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>22</v>
+      <c r="C47" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D47">
         <v>6</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>22</v>
+      <c r="C48" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D48">
         <v>6</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G48" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="5"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1"/>
-      <c r="C50" s="6"/>
+      <c r="C50" s="5"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="5"/>
       <c r="E51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J20:K20"/>
@@ -4335,17 +2960,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -4357,50 +2982,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="8">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="10">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9">
         <v>43371</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="10">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
         <v>43377</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="11">
+        <v>145</v>
+      </c>
+      <c r="B5" s="10">
         <f>COUNT(A18:A45)</f>
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>155</v>
+        <v>143</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>28</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>20</v>
       </c>
     </row>
@@ -4408,7 +3033,7 @@
       <c r="A8">
         <v>29</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>19</v>
       </c>
     </row>
@@ -4416,7 +3041,7 @@
       <c r="A9">
         <v>30</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>18</v>
       </c>
     </row>
@@ -4424,7 +3049,7 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>17</v>
       </c>
     </row>
@@ -4432,65 +3057,65 @@
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="8">
-        <v>17</v>
+      <c r="B11" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="8">
-        <v>17</v>
+      <c r="B12" s="7">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="8">
-        <v>17</v>
+      <c r="B13" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>137</v>
+      <c r="B18" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>53</v>
+        <v>116</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4498,93 +3123,93 @@
         <f>A18+1</f>
         <v>2</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>137</v>
+      <c r="B19" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="14"/>
+        <v>117</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <f t="shared" ref="A20:A38" si="0">A19+1</f>
+        <f>A19+1</f>
         <v>3</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>137</v>
+      <c r="B20" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>53</v>
+        <v>118</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>4</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>137</v>
+      <c r="B21" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>53</v>
+        <v>120</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>5</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>137</v>
+      <c r="B22" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>53</v>
+        <v>122</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4592,534 +3217,472 @@
         <f>A22+1</f>
         <v>6</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>137</v>
+      <c r="B23" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>7</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>137</v>
+      <c r="B24" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>53</v>
+        <v>124</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>8</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>138</v>
+      <c r="B25" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>9</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>96</v>
+      <c r="B26" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" t="s">
-        <v>116</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>10</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>96</v>
+      <c r="B27" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
+        <v>130</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>11</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>97</v>
+      <c r="B28" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" t="s">
-        <v>52</v>
+        <v>131</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>12</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>98</v>
+      <c r="B29" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
+        <v>132</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J29" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>13</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>98</v>
+      <c r="B30" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
+        <v>132</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="J30" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>14</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>99</v>
+      <c r="B31" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
+        <v>136</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>15</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>99</v>
+      <c r="B32" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" t="s">
-        <v>52</v>
+        <v>133</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>16</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>99</v>
+      <c r="B33" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" t="s">
-        <v>22</v>
+        <v>135</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>17</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>148</v>
+      <c r="B34" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" t="s">
-        <v>52</v>
+        <v>141</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f>A34+1</f>
         <v>18</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>100</v>
+      <c r="B35" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>53</v>
+        <v>142</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f>A35+1</f>
         <v>19</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>100</v>
+      <c r="B36" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" t="s">
-        <v>52</v>
+        <v>142</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f>A36+1</f>
         <v>20</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>100</v>
+      <c r="B37" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E37" t="s">
-        <v>53</v>
+        <v>142</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f>A37+1</f>
         <v>21</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>100</v>
+      <c r="B38" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" t="s">
-        <v>52</v>
+        <v>142</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
-        <v>22</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" t="s">
-        <v>52</v>
-      </c>
+      <c r="B39" s="6"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
-        <v>23</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" t="s">
-        <v>158</v>
-      </c>
+      <c r="B40" s="12"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
-        <f t="shared" ref="A41:A47" si="1">A40+1</f>
-        <v>24</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" t="s">
-        <v>158</v>
-      </c>
+      <c r="B41" s="12"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" t="s">
-        <v>158</v>
-      </c>
+      <c r="B42" s="12"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
-        <v>24</v>
-      </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
-        <v>25</v>
-      </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="7"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="7"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="7"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="7"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="7"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="7"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="7"/>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="7"/>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="7"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>42</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5127,564 +3690,640 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="B1" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5">
-        <v>43192</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="9">
+        <v>43378</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43198</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43384</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <f>COUNT(A15:A1000)</f>
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="B5" s="10">
+        <f>COUNT(A18:A45)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <f>B8</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" ref="B10:B14" si="0">B9</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <f>A18+1</f>
+        <v>2</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <f>A19+1</f>
+        <v>3</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <f>A20+1</f>
+        <v>4</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <f>A21+1</f>
+        <v>5</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <f>A22+1</f>
+        <v>6</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <f>A23+1</f>
+        <v>7</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <f>A24+1</f>
+        <v>8</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <f>A25+1</f>
+        <v>9</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <f>A26+1</f>
+        <v>10</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <f>A27+1</f>
+        <v>11</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <f>A28+1</f>
+        <v>12</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" t="s">
+        <v>108</v>
+      </c>
+      <c r="J29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <f>A29+1</f>
+        <v>13</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" t="s">
+        <v>110</v>
+      </c>
+      <c r="J30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <f>A30+1</f>
+        <v>14</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <f>A31+1</f>
+        <v>15</v>
+      </c>
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <f>A32+1</f>
+        <v>16</v>
+      </c>
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <f>A33+1</f>
+        <v>17</v>
+      </c>
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <f>A34+1</f>
+        <v>18</v>
+      </c>
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <f>A35+1</f>
+        <v>19</v>
+      </c>
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <f>A36+1</f>
+        <v>20</v>
+      </c>
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="13"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="13"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" s="13"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" s="13"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="13"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="13"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="13"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="13"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="13"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="13"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="13"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="13"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="13"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" ref="B6:B12" si="0">B5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C86" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="B87" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
         <v>37</v>
       </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
+      <c r="B90" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5">
-        <v>43199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <f>COUNT(A15:A1000)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ref="B6:B12" si="0">B5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5">
-        <v>43206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <f>COUNT(A15:A1000)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ref="B6:B12" si="0">B5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5">
-        <v>43213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <f>COUNT(A15:A1000)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ref="B6:B12" si="0">B5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I26:J26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8484" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="150">
   <si>
     <t>Product Name:</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>Complete tutorial section 4: Building the environment</t>
+  </si>
+  <si>
+    <t>Design the overview of level 1</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -604,13 +607,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,13 +775,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="113548288"/>
-        <c:axId val="113554560"/>
+        <c:axId val="117323648"/>
+        <c:axId val="117334016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113548288"/>
+        <c:axId val="117323648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,14 +856,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113554560"/>
+        <c:crossAx val="117334016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113554560"/>
+        <c:axId val="117334016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113548288"/>
+        <c:crossAx val="117323648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -988,7 +993,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1118,13 +1123,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="113174400"/>
-        <c:axId val="113582080"/>
+        <c:axId val="117023488"/>
+        <c:axId val="117025408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113174400"/>
+        <c:axId val="117023488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,14 +1204,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113582080"/>
+        <c:crossAx val="117025408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113582080"/>
+        <c:axId val="117025408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1293,7 +1297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113174400"/>
+        <c:crossAx val="117023488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1337,7 +1341,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1474,11 +1478,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100354688"/>
-        <c:axId val="6169344"/>
+        <c:axId val="117402624"/>
+        <c:axId val="117429376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100354688"/>
+        <c:axId val="117402624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,14 +1558,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6169344"/>
+        <c:crossAx val="117429376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6169344"/>
+        <c:axId val="117429376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1647,7 +1651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100354688"/>
+        <c:crossAx val="117402624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1691,7 +1695,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1717,7 +1721,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1762,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1803,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2079,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2085,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -2106,21 +2110,21 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="4"/>
@@ -2273,10 +2277,10 @@
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="16"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -2324,10 +2328,10 @@
       <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -2441,7 +2445,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
@@ -2463,7 +2467,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
@@ -2485,10 +2489,10 @@
       <c r="H28" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="15"/>
+      <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -2963,7 +2967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -3096,10 +3100,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -3120,7 +3124,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <f>A18+1</f>
+        <f t="shared" ref="A19:A38" si="0">A18+1</f>
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3135,14 +3139,14 @@
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="15"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -3166,7 +3170,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3190,7 +3194,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -3214,7 +3218,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -3236,7 +3240,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3251,14 +3255,14 @@
       <c r="E24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="16"/>
       <c r="J24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -3276,7 +3280,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3288,17 +3292,17 @@
       <c r="D26" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -3310,7 +3314,7 @@
       <c r="D27" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I27" t="s">
@@ -3322,7 +3326,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -3334,7 +3338,7 @@
       <c r="D28" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I28" t="s">
@@ -3346,7 +3350,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3358,7 +3362,7 @@
       <c r="D29" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I29" t="s">
@@ -3370,7 +3374,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3382,7 +3386,7 @@
       <c r="D30" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I30" t="s">
@@ -3394,7 +3398,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3406,7 +3410,7 @@
       <c r="D31" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I31" t="s">
@@ -3418,7 +3422,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -3436,7 +3440,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3448,13 +3452,13 @@
       <c r="D33" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -3466,13 +3470,13 @@
       <c r="D34" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <f>A34+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -3490,7 +3494,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <f>A35+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -3502,13 +3506,13 @@
       <c r="D36" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <f>A36+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3526,7 +3530,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <f>A37+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -3538,7 +3542,7 @@
       <c r="D38" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3693,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -3840,10 +3844,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -3864,7 +3868,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <f>A18+1</f>
+        <f t="shared" ref="A19:A37" si="1">A18+1</f>
         <v>2</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -3879,14 +3883,14 @@
       <c r="E19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="15"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <f>A19+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -3910,7 +3914,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <f>A20+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -3931,7 +3935,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <f>A21+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -3952,7 +3956,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <f>A22+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -3974,7 +3978,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <f>A23+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -3986,14 +3990,14 @@
       <c r="D24" t="s">
         <v>129</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="16"/>
       <c r="J24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <f>A24+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -4008,7 +4012,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <f>A25+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -4023,14 +4027,14 @@
       <c r="E26" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <f>A26+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -4051,7 +4055,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <f>A27+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -4072,7 +4076,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <f>A28+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -4093,7 +4097,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <f>A29+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -4114,7 +4118,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <f>A30+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -4138,42 +4142,53 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <f>A31+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B32"/>
+      <c r="B32" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <f>A32+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B33"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <f>A33+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B34"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <f>A34+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <f>A35+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B36"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <f>A36+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B37"/>

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -671,7 +671,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -776,11 +775,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="117323648"/>
-        <c:axId val="117334016"/>
+        <c:axId val="121320576"/>
+        <c:axId val="121322880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117323648"/>
+        <c:axId val="121320576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +810,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -856,14 +854,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117334016"/>
+        <c:crossAx val="121322880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117334016"/>
+        <c:axId val="121322880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +910,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -951,7 +948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117323648"/>
+        <c:crossAx val="121320576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -993,13 +990,358 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Down Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1'!$A$7:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$B$7:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="120958976"/>
+        <c:axId val="120960896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="120958976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="120960896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="120960896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="120958976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1059,60 +1401,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 1'!$A$7:$A$13</c:f>
+              <c:f>'Sprint 2'!$A$7:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$B$7:$B$13</c:f>
+              <c:f>'Sprint 2'!$B$7:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,11 +1472,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="117023488"/>
-        <c:axId val="117025408"/>
+        <c:axId val="121399552"/>
+        <c:axId val="121418112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117023488"/>
+        <c:axId val="121399552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,14 +1552,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117025408"/>
+        <c:crossAx val="121418112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117025408"/>
+        <c:axId val="121418112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1297,7 +1645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117023488"/>
+        <c:crossAx val="121399552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1341,361 +1689,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint Burn Down Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sprint 2'!$A$7:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 2'!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="117402624"/>
-        <c:axId val="117429376"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="117402624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="117429376"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="117429376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="22"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tasks Remaining</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="117402624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1721,7 +1715,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1756,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1797,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2073,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3697,8 +3691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -3744,7 +3738,7 @@
       </c>
       <c r="B5" s="10">
         <f>COUNT(A18:A45)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3760,7 +3754,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3768,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3776,8 +3770,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7">
-        <f>B8</f>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3785,8 +3778,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" ref="B10:B14" si="0">B9</f>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3794,8 +3786,8 @@
         <v>8</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f t="shared" ref="B10:B14" si="0">B10</f>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3804,7 +3796,7 @@
       </c>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3813,7 +3805,7 @@
       </c>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3822,7 +3814,7 @@
       </c>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4154,8 +4146,8 @@
       <c r="D32" t="s">
         <v>149</v>
       </c>
-      <c r="E32" t="s">
-        <v>41</v>
+      <c r="E32" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4180,17 +4172,9 @@
       <c r="B35"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
       <c r="B36"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
       <c r="B37"/>
     </row>
     <row r="38" spans="1:5">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8484" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="159">
   <si>
     <t>Product Name:</t>
   </si>
@@ -323,9 +323,6 @@
   </si>
   <si>
     <t>AI2</t>
-  </si>
-  <si>
-    <t>INC2</t>
   </si>
   <si>
     <t>INC3</t>
@@ -489,6 +486,36 @@
   </si>
   <si>
     <t>Design the overview of level 1</t>
+  </si>
+  <si>
+    <t>Design dumbsters, street bench and exit door for level completion</t>
+  </si>
+  <si>
+    <t>Design some trees and 3 tall building for midground</t>
+  </si>
+  <si>
+    <t>Design 5 different sized buildings</t>
+  </si>
+  <si>
+    <t>Design 3 different sized buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design twinkling stars (2 frames) </t>
+  </si>
+  <si>
+    <t>Design some street lights and spikes</t>
+  </si>
+  <si>
+    <t>SRA planning</t>
+  </si>
+  <si>
+    <t>INC2.1</t>
+  </si>
+  <si>
+    <t>INC2.2</t>
+  </si>
+  <si>
+    <t>Plan SRA increment and form tasks list</t>
   </si>
 </sst>
 </file>
@@ -570,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -608,6 +635,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,6 +701,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -775,11 +806,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121320576"/>
-        <c:axId val="121322880"/>
+        <c:axId val="144184448"/>
+        <c:axId val="144186752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121320576"/>
+        <c:axId val="144184448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,6 +841,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -854,14 +886,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121322880"/>
+        <c:crossAx val="144186752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121322880"/>
+        <c:axId val="144186752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,6 +942,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -948,7 +981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121320576"/>
+        <c:crossAx val="144184448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -990,358 +1023,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint Burn Down Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sprint 1'!$A$7:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 1'!$B$7:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="120958976"/>
-        <c:axId val="120960896"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="120958976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="120960896"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="120960896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="22"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tasks Remaining</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="120958976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1401,66 +1089,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 2'!$A$7:$A$14</c:f>
+              <c:f>'Sprint 1'!$A$7:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$B$7:$B$14</c:f>
+              <c:f>'Sprint 1'!$B$7:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,11 +1154,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121399552"/>
-        <c:axId val="121418112"/>
+        <c:axId val="143896576"/>
+        <c:axId val="143898496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121399552"/>
+        <c:axId val="143896576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,14 +1234,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121418112"/>
+        <c:crossAx val="143898496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121418112"/>
+        <c:axId val="143898496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1645,7 +1327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121399552"/>
+        <c:crossAx val="143896576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1689,7 +1371,361 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Down Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2'!$A$7:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="144267520"/>
+        <c:axId val="144281984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="144267520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144281984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="144281984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144267520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1715,7 +1751,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1792,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1833,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2109,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2083,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -2104,21 +2140,21 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="4"/>
@@ -2230,7 +2266,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2271,14 +2307,14 @@
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="18"/>
+      <c r="J20" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2301,7 +2337,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22">
         <f>B21+1</f>
@@ -2322,10 +2358,10 @@
       <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -2434,12 +2470,12 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
@@ -2453,7 +2489,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" t="s">
         <v>71</v>
@@ -2483,10 +2519,10 @@
       <c r="H28" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="17"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -2514,7 +2550,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
@@ -2528,20 +2564,22 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G30" t="s">
         <v>71</v>
       </c>
       <c r="J30" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" t="s">
         <v>104</v>
       </c>
-      <c r="K30" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="B31">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2553,11 +2591,17 @@
         <v>2</v>
       </c>
       <c r="E31" s="1"/>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
       <c r="J31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" t="s">
         <v>106</v>
-      </c>
-      <c r="K31" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2582,10 +2626,10 @@
         <v>73</v>
       </c>
       <c r="J32" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" t="s">
         <v>108</v>
-      </c>
-      <c r="K32" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2610,10 +2654,10 @@
         <v>73</v>
       </c>
       <c r="J33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" t="s">
         <v>110</v>
-      </c>
-      <c r="K33" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2641,7 +2685,7 @@
         <v>75</v>
       </c>
       <c r="K34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2704,7 +2748,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
@@ -2806,7 +2850,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
@@ -2850,7 +2894,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
@@ -2886,7 +2930,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
@@ -2908,7 +2952,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
@@ -3004,7 +3048,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="10">
         <f>COUNT(A18:A45)</f>
@@ -3013,10 +3057,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3094,23 +3138,23 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="18"/>
+      <c r="I17" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>42</v>
@@ -3122,21 +3166,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="17"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -3144,13 +3188,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>42</v>
@@ -3168,13 +3212,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
         <v>119</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>42</v>
@@ -3192,13 +3236,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
         <v>121</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>42</v>
@@ -3216,20 +3260,20 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3238,20 +3282,20 @@
         <v>7</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3260,13 +3304,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
         <v>127</v>
-      </c>
-      <c r="C25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" t="s">
-        <v>128</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>42</v>
@@ -3281,18 +3325,18 @@
         <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="17"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
@@ -3303,19 +3347,19 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I27" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" t="s">
         <v>104</v>
-      </c>
-      <c r="J27" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3327,19 +3371,19 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" t="s">
         <v>106</v>
-      </c>
-      <c r="J28" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3351,19 +3395,19 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I29" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" t="s">
         <v>108</v>
-      </c>
-      <c r="J29" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3375,19 +3419,19 @@
         <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" t="s">
         <v>110</v>
-      </c>
-      <c r="J30" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3399,10 +3443,10 @@
         <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>20</v>
@@ -3411,7 +3455,7 @@
         <v>75</v>
       </c>
       <c r="J31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3423,10 +3467,10 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>42</v>
@@ -3441,10 +3485,10 @@
         <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>20</v>
@@ -3456,13 +3500,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>41</v>
@@ -3477,10 +3521,10 @@
         <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>42</v>
@@ -3495,10 +3539,10 @@
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>41</v>
@@ -3513,10 +3557,10 @@
         <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>42</v>
@@ -3531,10 +3575,10 @@
         <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>41</v>
@@ -3691,8 +3735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -3700,7 +3744,7 @@
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
@@ -3734,19 +3778,19 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="10">
         <f>COUNT(A18:A45)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3754,67 +3798,63 @@
         <v>4</v>
       </c>
       <c r="B7" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
-        <v>17</v>
+      <c r="B8" s="10">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
-        <v>17</v>
+      <c r="B9" s="10">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
-        <v>16</v>
+      <c r="B10" s="10">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
-        <f t="shared" ref="B10:B14" si="0">B10</f>
-        <v>16</v>
+      <c r="B11" s="10">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="B12" s="10">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="B13" s="10">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="B14" s="10">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3836,10 +3876,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="18"/>
+      <c r="I17" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -3849,10 +3889,10 @@
         <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>41</v>
@@ -3860,39 +3900,39 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <f t="shared" ref="A19:A37" si="1">A18+1</f>
+        <f t="shared" ref="A19:A35" si="0">A18+1</f>
         <v>2</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="17"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
         <v>41</v>
@@ -3906,17 +3946,17 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -3927,17 +3967,17 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I22" t="s">
         <v>42</v>
@@ -3948,227 +3988,239 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="17"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" t="s">
         <v>104</v>
-      </c>
-      <c r="J27" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="I28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" t="s">
         <v>106</v>
-      </c>
-      <c r="J28" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="I29" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" t="s">
         <v>108</v>
-      </c>
-      <c r="J29" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" t="s">
         <v>110</v>
-      </c>
-      <c r="J30" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>137</v>
+      <c r="B31" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="I31" t="s">
         <v>75</v>
       </c>
       <c r="J31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>137</v>
+      <c r="B32" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>42</v>
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B34"/>
+      <c r="B34" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
       <c r="B35"/>
     </row>
     <row r="36" spans="1:5">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harisqureshi/Desktop/stickJumpForce/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CAB88F-A8FA-A242-94CC-775D9C588B4D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -521,7 +522,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -665,8 +666,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -701,7 +712,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -710,10 +721,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -799,13 +812,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="144184448"/>
         <c:axId val="144186752"/>
       </c:lineChart>
@@ -814,6 +836,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -841,7 +864,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -852,6 +875,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -891,12 +915,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="144186752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -942,7 +968,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -953,6 +979,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -995,6 +1022,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1030,8 +1058,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1059,7 +1097,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1068,10 +1106,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1147,13 +1187,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="143896576"/>
         <c:axId val="143898496"/>
       </c:lineChart>
@@ -1162,6 +1211,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1189,7 +1239,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1200,6 +1250,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1239,6 +1290,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="143898496"/>
@@ -1247,6 +1299,7 @@
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1288,7 +1341,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1299,6 +1352,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1343,6 +1397,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1378,8 +1433,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1407,7 +1472,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1416,10 +1481,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1501,13 +1568,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="144267520"/>
         <c:axId val="144281984"/>
       </c:lineChart>
@@ -1516,6 +1592,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1543,7 +1620,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1554,6 +1631,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1593,6 +1671,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="144281984"/>
@@ -1601,6 +1680,7 @@
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1642,7 +1722,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1653,6 +1733,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1697,6 +1778,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1751,7 +1833,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1874,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1915,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,34 +2191,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3002,24 +3084,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3545,7 +3627,7 @@
         <v>141</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3732,24 +3814,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3895,12 +3977,12 @@
         <v>141</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <f t="shared" ref="A19:A35" si="0">A18+1</f>
+        <f t="shared" ref="A19:A34" si="0">A18+1</f>
         <v>2</v>
       </c>
       <c r="B19" s="13" t="s">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harisqureshi/Desktop/stickJumpForce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CAB88F-A8FA-A242-94CC-775D9C588B4D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC2E150-5D03-D246-B414-CFD48B0BB6CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="159">
   <si>
     <t>Product Name:</t>
   </si>
@@ -3818,7 +3818,7 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -4061,6 +4061,9 @@
       <c r="D22" t="s">
         <v>147</v>
       </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
       <c r="I22" t="s">
         <v>42</v>
       </c>
@@ -4181,6 +4184,9 @@
       <c r="D28" t="s">
         <v>151</v>
       </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
       <c r="I28" t="s">
         <v>105</v>
       </c>
@@ -4201,6 +4207,9 @@
       </c>
       <c r="D29" t="s">
         <v>153</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
       </c>
       <c r="I29" t="s">
         <v>107</v>

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harisqureshi/Desktop/stickJumpForce/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CAB88F-A8FA-A242-94CC-775D9C588B4D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="159">
   <si>
     <t>Product Name:</t>
   </si>
@@ -522,7 +516,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -666,18 +660,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -712,7 +696,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -721,12 +704,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -812,31 +793,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="144184448"/>
-        <c:axId val="144186752"/>
+        <c:marker val="1"/>
+        <c:axId val="114702208"/>
+        <c:axId val="114716672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144184448"/>
+        <c:axId val="114702208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -864,7 +835,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -875,7 +845,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -910,19 +879,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144186752"/>
+        <c:crossAx val="114716672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144186752"/>
+        <c:axId val="114716672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -968,7 +935,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -979,7 +945,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1008,7 +973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144184448"/>
+        <c:crossAx val="114702208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1022,7 +987,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1051,25 +1015,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1097,7 +1051,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1106,12 +1060,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1187,31 +1139,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="143896576"/>
-        <c:axId val="143898496"/>
+        <c:marker val="1"/>
+        <c:axId val="113296128"/>
+        <c:axId val="113298048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143896576"/>
+        <c:axId val="113296128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1239,7 +1181,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1250,7 +1192,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1285,21 +1226,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143898496"/>
+        <c:crossAx val="113298048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143898496"/>
+        <c:axId val="113298048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1341,7 +1280,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1352,7 +1291,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1381,7 +1319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143896576"/>
+        <c:crossAx val="113296128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1397,7 +1335,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1426,25 +1363,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1472,7 +1399,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1481,12 +1408,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1542,7 +1467,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16</c:v>
@@ -1560,39 +1485,29 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="144267520"/>
-        <c:axId val="144281984"/>
+        <c:marker val="1"/>
+        <c:axId val="114785664"/>
+        <c:axId val="114812416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144267520"/>
+        <c:axId val="114785664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1620,7 +1535,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1631,7 +1546,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1666,21 +1580,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144281984"/>
+        <c:crossAx val="114812416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144281984"/>
+        <c:axId val="114812416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1722,7 +1634,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1733,7 +1645,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1762,7 +1673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144267520"/>
+        <c:crossAx val="114785664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1778,7 +1689,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1807,7 +1717,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1833,7 +1743,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1784,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1915,7 +1825,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,34 +2101,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="19">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3084,24 +2994,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3814,24 +3724,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="55.5" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="55.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3880,7 +3790,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3928,7 +3838,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3936,7 +3846,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3976,7 +3886,7 @@
       <c r="D18" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4103,6 +4013,9 @@
       </c>
       <c r="D24" t="s">
         <v>154</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" t="s">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justfornow/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B5C196-6138-424F-A312-681427DAF268}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -516,7 +522,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -660,8 +666,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -696,6 +712,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -704,10 +721,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -793,21 +812,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="114702208"/>
-        <c:axId val="114716672"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="144184448"/>
+        <c:axId val="144186752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114702208"/>
+        <c:axId val="144184448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -835,6 +864,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -845,6 +875,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -879,17 +910,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114716672"/>
+        <c:crossAx val="144186752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114716672"/>
+        <c:axId val="144186752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -935,6 +968,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -945,6 +979,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -973,7 +1008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114702208"/>
+        <c:crossAx val="144184448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -987,6 +1022,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1015,15 +1051,25 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1051,7 +1097,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1060,10 +1106,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1139,21 +1187,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="113296128"/>
-        <c:axId val="113298048"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="143896576"/>
+        <c:axId val="143898496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113296128"/>
+        <c:axId val="143896576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1181,7 +1239,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1192,6 +1250,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1226,19 +1285,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113298048"/>
+        <c:crossAx val="143898496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113298048"/>
+        <c:axId val="143898496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1280,7 +1341,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1291,6 +1352,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1319,7 +1381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113296128"/>
+        <c:crossAx val="143896576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1335,6 +1397,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1363,15 +1426,25 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1399,7 +1472,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1408,10 +1481,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1467,7 +1542,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16</c:v>
@@ -1485,29 +1560,39 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="114785664"/>
-        <c:axId val="114812416"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="144267520"/>
+        <c:axId val="144281984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114785664"/>
+        <c:axId val="144267520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1535,7 +1620,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1546,6 +1631,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1580,19 +1666,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114812416"/>
+        <c:crossAx val="144281984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114812416"/>
+        <c:axId val="144281984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1634,7 +1722,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1645,6 +1733,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1673,7 +1762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114785664"/>
+        <c:crossAx val="144267520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1689,6 +1778,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1717,7 +1807,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1743,7 +1833,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1874,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1915,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,34 +2191,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2994,24 +3084,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3323,7 +3413,7 @@
         <v>128</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>11</v>
@@ -3393,7 +3483,7 @@
         <v>131</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s">
         <v>107</v>
@@ -3724,24 +3814,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3790,7 +3880,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3838,7 +3928,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3846,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3886,7 +3976,7 @@
       <c r="D18" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4014,9 +4104,6 @@
       <c r="D24" t="s">
         <v>154</v>
       </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
       <c r="I24" s="16"/>
       <c r="J24" t="s">
         <v>146</v>
@@ -4072,6 +4159,9 @@
       </c>
       <c r="D27" t="s">
         <v>150</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
       </c>
       <c r="I27" t="s">
         <v>103</v>

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justfornow/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B5C196-6138-424F-A312-681427DAF268}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -489,12 +483,6 @@
     <t>Design the overview of level 1</t>
   </si>
   <si>
-    <t>Design dumbsters, street bench and exit door for level completion</t>
-  </si>
-  <si>
-    <t>Design some trees and 3 tall building for midground</t>
-  </si>
-  <si>
     <t>Design 5 different sized buildings</t>
   </si>
   <si>
@@ -517,12 +505,18 @@
   </si>
   <si>
     <t>Plan SRA increment and form tasks list</t>
+  </si>
+  <si>
+    <t>Design street bench and exit door for level completion</t>
+  </si>
+  <si>
+    <t>Design dumbster, some trees and 2 tall building for midground</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -666,18 +660,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -712,7 +696,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -721,12 +704,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -812,31 +793,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="144184448"/>
-        <c:axId val="144186752"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="116733824"/>
+        <c:axId val="116740096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144184448"/>
+        <c:axId val="116733824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -864,7 +836,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -875,7 +846,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -910,19 +880,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144186752"/>
+        <c:crossAx val="116740096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144186752"/>
+        <c:axId val="116740096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -968,7 +936,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -979,7 +946,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1008,7 +974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144184448"/>
+        <c:crossAx val="116733824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1022,7 +988,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1051,25 +1016,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1097,7 +1052,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1106,12 +1060,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1187,31 +1139,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="143896576"/>
-        <c:axId val="143898496"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="116802304"/>
+        <c:axId val="116804224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143896576"/>
+        <c:axId val="116802304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1239,7 +1182,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1250,7 +1192,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1285,21 +1226,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143898496"/>
+        <c:crossAx val="116804224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143898496"/>
+        <c:axId val="116804224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1341,7 +1280,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1352,7 +1290,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1381,7 +1318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143896576"/>
+        <c:crossAx val="116802304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1397,7 +1334,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1426,25 +1362,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1472,7 +1398,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1481,12 +1407,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1568,31 +1492,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="144267520"/>
-        <c:axId val="144281984"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="116419968"/>
+        <c:axId val="116438528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144267520"/>
+        <c:axId val="116419968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1620,7 +1535,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1631,7 +1546,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1666,21 +1580,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144281984"/>
+        <c:crossAx val="116438528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144281984"/>
+        <c:axId val="116438528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1722,7 +1634,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1733,7 +1645,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1762,7 +1673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144267520"/>
+        <c:crossAx val="116419968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1778,7 +1689,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1807,7 +1717,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1833,7 +1743,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1784,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1915,7 +1825,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,34 +2101,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="19">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2660,7 +2570,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
@@ -2674,7 +2584,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G31" t="s">
         <v>77</v>
@@ -2830,7 +2740,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
@@ -3084,24 +2994,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3814,24 +3724,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="55.5" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="55.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4102,7 +4012,7 @@
         <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" t="s">
@@ -4121,7 +4031,7 @@
         <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4158,7 +4068,7 @@
         <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
         <v>41</v>
@@ -4182,7 +4092,7 @@
         <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I28" t="s">
         <v>105</v>
@@ -4203,7 +4113,7 @@
         <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I29" t="s">
         <v>107</v>
@@ -4245,7 +4155,7 @@
         <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I31" t="s">
         <v>75</v>
@@ -4296,13 +4206,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C34" t="s">
         <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:5">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A02247F-DF7F-4AE8-A6DF-88623AFAADEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="159">
   <si>
     <t>Product Name:</t>
   </si>
@@ -510,13 +521,13 @@
     <t>Design street bench and exit door for level completion</t>
   </si>
   <si>
-    <t>Design dumbster, some trees and 2 tall building for midground</t>
+    <t>Design dumpster, some trees and 2 tall building for midground</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -660,8 +671,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -696,6 +717,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -704,10 +726,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -793,14 +817,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="116733824"/>
         <c:axId val="116740096"/>
       </c:lineChart>
@@ -809,6 +841,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -836,6 +869,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -846,6 +880,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -885,12 +920,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="116740096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -936,6 +973,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -946,6 +984,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -988,6 +1027,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1023,8 +1063,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1052,6 +1102,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1060,10 +1111,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1139,14 +1192,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="116802304"/>
         <c:axId val="116804224"/>
       </c:lineChart>
@@ -1155,6 +1216,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1182,6 +1244,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1192,6 +1255,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1231,6 +1295,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="116804224"/>
@@ -1239,6 +1304,7 @@
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1280,6 +1346,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1290,6 +1357,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1334,6 +1402,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1369,8 +1438,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1398,7 +1477,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1407,10 +1486,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1492,14 +1573,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="116419968"/>
         <c:axId val="116438528"/>
       </c:lineChart>
@@ -1508,6 +1597,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1535,7 +1625,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1546,6 +1636,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1585,6 +1676,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="116438528"/>
@@ -1593,6 +1685,7 @@
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1634,7 +1727,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1645,6 +1738,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1689,6 +1783,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1743,7 +1838,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1879,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1920,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,14 +2196,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2994,7 +3089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3724,11 +3819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -3904,8 +3999,8 @@
       <c r="D19" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>41</v>
+      <c r="E19" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>82</v>
@@ -3950,6 +4045,9 @@
       <c r="D21" t="s">
         <v>147</v>
       </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
       <c r="I21" t="s">
         <v>41</v>
       </c>
@@ -4136,6 +4234,9 @@
       <c r="D30" t="s">
         <v>134</v>
       </c>
+      <c r="E30" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="I30" t="s">
         <v>109</v>
       </c>
@@ -4156,6 +4257,9 @@
       </c>
       <c r="D31" t="s">
         <v>150</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
       </c>
       <c r="I31" t="s">
         <v>75</v>

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD_Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A02247F-DF7F-4AE8-A6DF-88623AFAADEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="162">
   <si>
     <t>Product Name:</t>
   </si>
@@ -523,12 +517,21 @@
   <si>
     <t>Design dumpster, some trees and 2 tall building for midground</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +563,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -603,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -653,6 +662,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,18 +681,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -717,7 +717,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -726,12 +726,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -800,48 +798,39 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="116733824"/>
-        <c:axId val="116740096"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="96737536"/>
+        <c:axId val="119919744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116733824"/>
+        <c:axId val="96737536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -869,7 +858,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -880,7 +869,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -915,19 +903,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116740096"/>
+        <c:crossAx val="119919744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116740096"/>
+        <c:axId val="119919744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -973,7 +959,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -984,7 +970,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1013,7 +998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116733824"/>
+        <c:crossAx val="96737536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1027,7 +1012,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1056,25 +1040,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1102,7 +1076,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1111,12 +1085,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1192,31 +1164,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="116802304"/>
-        <c:axId val="116804224"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="119179520"/>
+        <c:axId val="119996800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116802304"/>
+        <c:axId val="119179520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1244,7 +1207,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1255,7 +1218,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1290,21 +1252,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116804224"/>
+        <c:crossAx val="119996800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116804224"/>
+        <c:axId val="119996800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1346,7 +1306,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1357,7 +1317,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1386,7 +1345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116802304"/>
+        <c:crossAx val="119179520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1402,7 +1361,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1431,25 +1389,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1477,7 +1425,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1486,12 +1434,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1509,10 +1455,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 2'!$A$7:$A$14</c:f>
+              <c:f>'Sprint 2'!$A$7:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1536,16 +1482,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$B$7:$B$14</c:f>
+              <c:f>'Sprint 2'!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -1569,35 +1518,29 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="116419968"/>
-        <c:axId val="116438528"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="121631872"/>
+        <c:axId val="121633792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116419968"/>
+        <c:axId val="121631872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1625,7 +1568,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1636,7 +1579,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1671,21 +1613,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116438528"/>
+        <c:crossAx val="121633792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116438528"/>
+        <c:axId val="121633792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1727,7 +1667,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1738,7 +1678,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1767,7 +1706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116419968"/>
+        <c:crossAx val="121631872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1783,7 +1722,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1812,7 +1750,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1838,7 +1776,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1817,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,7 +1858,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,18 +2134,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -2292,9 +2230,11 @@
       </c>
       <c r="B10">
         <f t="shared" ref="B10:B14" si="0">B9-C10</f>
-        <v>26</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
       <c r="D10" s="8">
         <v>43384</v>
       </c>
@@ -2305,7 +2245,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="8">
@@ -2318,7 +2258,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="8">
@@ -2331,7 +2271,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="8">
@@ -2344,7 +2284,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="8">
@@ -2464,7 +2404,9 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
       <c r="F23" t="s">
         <v>50</v>
       </c>
@@ -2492,7 +2434,9 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
       <c r="F24" t="s">
         <v>49</v>
       </c>
@@ -2520,7 +2464,9 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
       <c r="F25" t="s">
         <v>51</v>
       </c>
@@ -2548,7 +2494,9 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
       <c r="F26" t="s">
         <v>52</v>
       </c>
@@ -2574,7 +2522,9 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
       <c r="F27" t="s">
         <v>138</v>
       </c>
@@ -2596,7 +2546,9 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
       <c r="F28" t="s">
         <v>45</v>
       </c>
@@ -2625,7 +2577,9 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
       <c r="F29" t="s">
         <v>46</v>
       </c>
@@ -3089,11 +3043,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -3819,11 +3773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -3860,7 +3814,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="9">
-        <v>43384</v>
+        <v>43385</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3944,6 +3898,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10">
+        <v>3</v>
+      </c>
+    </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>24</v>
@@ -3981,7 +3943,7 @@
       <c r="D18" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4021,8 +3983,8 @@
       <c r="D20" t="s">
         <v>147</v>
       </c>
-      <c r="E20" t="s">
-        <v>41</v>
+      <c r="E20" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
@@ -4045,8 +4007,8 @@
       <c r="D21" t="s">
         <v>147</v>
       </c>
-      <c r="E21" t="s">
-        <v>41</v>
+      <c r="E21" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -4069,6 +4031,9 @@
       <c r="D22" t="s">
         <v>147</v>
       </c>
+      <c r="E22" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="I22" t="s">
         <v>42</v>
       </c>
@@ -4112,6 +4077,9 @@
       <c r="D24" t="s">
         <v>152</v>
       </c>
+      <c r="E24" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="I24" s="16"/>
       <c r="J24" t="s">
         <v>146</v>
@@ -4131,6 +4099,15 @@
       <c r="D25" t="s">
         <v>157</v>
       </c>
+      <c r="E25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
@@ -4146,13 +4123,9 @@
       <c r="D26" t="s">
         <v>130</v>
       </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="18"/>
+      <c r="E26" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
@@ -4168,15 +4141,13 @@
       <c r="D27" t="s">
         <v>158</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I27" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" t="s">
-        <v>104</v>
-      </c>
+      <c r="I27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
@@ -4192,11 +4163,14 @@
       <c r="D28" t="s">
         <v>149</v>
       </c>
+      <c r="E28" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="I28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4213,11 +4187,14 @@
       <c r="D29" t="s">
         <v>151</v>
       </c>
+      <c r="E29" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4238,10 +4215,10 @@
         <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4258,14 +4235,14 @@
       <c r="D31" t="s">
         <v>150</v>
       </c>
-      <c r="E31" t="s">
-        <v>41</v>
+      <c r="E31" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4282,8 +4259,14 @@
       <c r="D32" t="s">
         <v>140</v>
       </c>
-      <c r="E32" t="s">
-        <v>41</v>
+      <c r="E32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4318,6 +4301,7 @@
       <c r="D34" t="s">
         <v>156</v>
       </c>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5">
       <c r="B35"/>
@@ -4472,9 +4456,10 @@
   <mergeCells count="3">
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="8" r:id="rId3"/>
+    <sheet name="Sprint 3" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="180">
   <si>
     <t>Product Name:</t>
   </si>
@@ -347,9 +348,6 @@
     </r>
   </si>
   <si>
-    <t>RERENCES</t>
-  </si>
-  <si>
     <t>INC</t>
   </si>
   <si>
@@ -525,13 +523,70 @@
   </si>
   <si>
     <t>Cancelled</t>
+  </si>
+  <si>
+    <t>"These two are references for me!" -Bhuwan</t>
+  </si>
+  <si>
+    <t>REFERENCES</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Sketch and design main character</t>
+  </si>
+  <si>
+    <t>Make sprites for main character</t>
+  </si>
+  <si>
+    <t>Sketch and design enemy characters</t>
+  </si>
+  <si>
+    <t>Make sprites for enemy characters</t>
+  </si>
+  <si>
+    <t>DSG5</t>
+  </si>
+  <si>
+    <t>Design additional sprites</t>
+  </si>
+  <si>
+    <t>Game design</t>
+  </si>
+  <si>
+    <t>Design sprites for weapons</t>
+  </si>
+  <si>
+    <t>Design sprites for health potions and XP</t>
+  </si>
+  <si>
+    <t>Complete Level 1 design</t>
+  </si>
+  <si>
+    <t>Complete assigned SRA task</t>
+  </si>
+  <si>
+    <t>xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>COMPLETE UNTIL HERE BY FRIDAY 10/19</t>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,8 +628,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,6 +662,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -612,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -659,10 +728,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,13 +900,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="96737536"/>
-        <c:axId val="119919744"/>
+        <c:axId val="127223680"/>
+        <c:axId val="127234048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96737536"/>
+        <c:axId val="127223680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,14 +981,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119919744"/>
+        <c:crossAx val="127234048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119919744"/>
+        <c:axId val="127234048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +1076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96737536"/>
+        <c:crossAx val="127223680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1040,7 +1118,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1170,13 +1248,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="119179520"/>
-        <c:axId val="119996800"/>
+        <c:axId val="126853888"/>
+        <c:axId val="126855808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119179520"/>
+        <c:axId val="126853888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,14 +1329,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119996800"/>
+        <c:crossAx val="126855808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119996800"/>
+        <c:axId val="126855808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1345,7 +1422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119179520"/>
+        <c:crossAx val="126853888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1389,7 +1466,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1531,13 +1608,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="121631872"/>
-        <c:axId val="121633792"/>
+        <c:axId val="127380864"/>
+        <c:axId val="127534592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121631872"/>
+        <c:axId val="127380864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,14 +1689,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121633792"/>
+        <c:crossAx val="127534592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121633792"/>
+        <c:axId val="127534592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1706,7 +1782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121631872"/>
+        <c:crossAx val="127380864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1750,7 +1826,397 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Down Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 3'!$A$7:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$B$7:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="108709376"/>
+        <c:axId val="108711296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108709376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108711296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108711296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108709376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1776,7 +2242,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +2283,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +2324,48 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,7 +2641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2144,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -2165,21 +2672,21 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="4"/>
@@ -2249,7 +2756,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="8">
-        <v>43398</v>
+        <v>43399</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2262,7 +2769,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="8">
-        <v>43412</v>
+        <v>43413</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2275,7 +2782,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="8">
-        <v>43419</v>
+        <v>43420</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2293,7 +2800,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2334,14 +2841,14 @@
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="19"/>
+      <c r="J20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2364,7 +2871,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22">
         <f>B21+1</f>
@@ -2385,10 +2892,10 @@
       <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="18"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -2505,12 +3012,12 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
@@ -2526,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
         <v>71</v>
@@ -2558,10 +3065,10 @@
       <c r="H28" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="18"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -2591,7 +3098,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
@@ -2605,21 +3112,21 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
         <v>71</v>
       </c>
       <c r="J30" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" t="s">
         <v>103</v>
-      </c>
-      <c r="K30" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
@@ -2633,16 +3140,16 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G31" t="s">
         <v>77</v>
       </c>
       <c r="J31" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" t="s">
         <v>105</v>
-      </c>
-      <c r="K31" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2667,10 +3174,10 @@
         <v>73</v>
       </c>
       <c r="J32" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" t="s">
         <v>107</v>
-      </c>
-      <c r="K32" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2695,10 +3202,10 @@
         <v>73</v>
       </c>
       <c r="J33" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" t="s">
         <v>109</v>
-      </c>
-      <c r="K33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2726,7 +3233,7 @@
         <v>75</v>
       </c>
       <c r="K34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2774,7 +3281,9 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="B37">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2786,10 +3295,16 @@
         <v>3</v>
       </c>
       <c r="E37" s="1"/>
+      <c r="F37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
@@ -3047,7 +3562,7 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -3089,7 +3604,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="10">
         <f>COUNT(A18:A45)</f>
@@ -3098,10 +3613,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3179,23 +3694,23 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="19"/>
+      <c r="I17" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>42</v>
@@ -3207,21 +3722,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -3229,13 +3744,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>42</v>
@@ -3253,13 +3768,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
         <v>118</v>
-      </c>
-      <c r="D21" t="s">
-        <v>119</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>42</v>
@@ -3277,13 +3792,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
         <v>120</v>
-      </c>
-      <c r="D22" t="s">
-        <v>121</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>42</v>
@@ -3301,20 +3816,20 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3323,20 +3838,20 @@
         <v>7</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3345,13 +3860,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
         <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" t="s">
-        <v>127</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>42</v>
@@ -3366,18 +3881,18 @@
         <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="18"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
@@ -3388,19 +3903,19 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I27" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" t="s">
         <v>103</v>
-      </c>
-      <c r="J27" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3412,19 +3927,19 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I28" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" t="s">
         <v>105</v>
-      </c>
-      <c r="J28" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3436,19 +3951,19 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>42</v>
       </c>
       <c r="I29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" t="s">
         <v>107</v>
-      </c>
-      <c r="J29" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3460,19 +3975,19 @@
         <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" t="s">
         <v>109</v>
-      </c>
-      <c r="J30" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3484,10 +3999,10 @@
         <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>20</v>
@@ -3496,7 +4011,7 @@
         <v>75</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3508,10 +4023,10 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>42</v>
@@ -3526,10 +4041,10 @@
         <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>20</v>
@@ -3541,13 +4056,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>41</v>
@@ -3562,10 +4077,10 @@
         <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>42</v>
@@ -3580,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>42</v>
@@ -3598,10 +4113,10 @@
         <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>42</v>
@@ -3616,10 +4131,10 @@
         <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>41</v>
@@ -3777,7 +4292,7 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="I17" sqref="I17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -3819,7 +4334,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="10">
         <f>COUNT(A18:A45)</f>
@@ -3828,10 +4343,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3925,10 +4440,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="19"/>
+      <c r="I17" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -3938,10 +4453,10 @@
         <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>42</v>
@@ -3956,18 +4471,18 @@
         <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -3978,13 +4493,13 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>160</v>
+        <v>146</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
@@ -4002,13 +4517,13 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -4026,13 +4541,13 @@
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
         <v>42</v>
@@ -4050,17 +4565,17 @@
         <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4072,17 +4587,17 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4094,19 +4609,19 @@
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4118,10 +4633,10 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>42</v>
@@ -4136,18 +4651,18 @@
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="18"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
@@ -4158,19 +4673,19 @@
         <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" t="s">
         <v>103</v>
-      </c>
-      <c r="J28" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4182,19 +4697,19 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" t="s">
         <v>105</v>
-      </c>
-      <c r="J29" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4206,19 +4721,19 @@
         <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" t="s">
         <v>107</v>
-      </c>
-      <c r="J30" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4230,19 +4745,19 @@
         <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I31" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" t="s">
         <v>109</v>
-      </c>
-      <c r="J31" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4251,13 +4766,13 @@
         <v>15</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>42</v>
@@ -4266,7 +4781,7 @@
         <v>75</v>
       </c>
       <c r="J32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4275,13 +4790,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>42</v>
@@ -4293,13 +4808,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E34" s="16"/>
     </row>
@@ -4462,4 +4977,920 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="55.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9">
+        <v>43386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="10">
+        <f>COUNT(A23:A54)-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10">
+        <f>B7</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10">
+        <f t="shared" ref="B9:B20" si="0">B8</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>26</v>
+      </c>
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <f t="shared" ref="A24:A51" si="1">A23+1</f>
+        <v>2</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="I24" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="I28" s="11"/>
+      <c r="J28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="I29" s="16"/>
+      <c r="J29" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="I30" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="I32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="I33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="I34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="I35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="I36" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="18"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="18"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" s="18"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" s="18"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="18"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="18"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" s="18"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" s="18"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" s="18"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" s="18"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="18"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="18"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="18"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="18"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="18"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="18"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="18"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="18"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="18"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="18"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="18"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="18"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="18"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="18"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="18"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="18"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="18"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="18"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="B81" s="18"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="B82" s="18"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="18"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="18"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I24:J24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="180">
   <si>
     <t>Product Name:</t>
   </si>
@@ -729,6 +729,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,7 +739,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -901,11 +901,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="127223680"/>
-        <c:axId val="127234048"/>
+        <c:axId val="133531136"/>
+        <c:axId val="133533696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127223680"/>
+        <c:axId val="133531136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,14 +981,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127234048"/>
+        <c:crossAx val="133533696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127234048"/>
+        <c:axId val="133533696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127223680"/>
+        <c:crossAx val="133531136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1118,7 +1118,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1249,11 +1249,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="126853888"/>
-        <c:axId val="126855808"/>
+        <c:axId val="133808512"/>
+        <c:axId val="133810432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126853888"/>
+        <c:axId val="133808512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,14 +1329,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126855808"/>
+        <c:crossAx val="133810432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126855808"/>
+        <c:axId val="133810432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1422,7 +1422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126853888"/>
+        <c:crossAx val="133808512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1466,7 +1466,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1609,11 +1609,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="127380864"/>
-        <c:axId val="127534592"/>
+        <c:axId val="136227456"/>
+        <c:axId val="136241920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127380864"/>
+        <c:axId val="136227456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,14 +1689,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127534592"/>
+        <c:crossAx val="136241920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127534592"/>
+        <c:axId val="136241920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1782,7 +1782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127380864"/>
+        <c:crossAx val="136227456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1826,7 +1826,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1999,11 +1999,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108709376"/>
-        <c:axId val="108711296"/>
+        <c:axId val="166671488"/>
+        <c:axId val="166673408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108709376"/>
+        <c:axId val="166671488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,14 +2079,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108711296"/>
+        <c:crossAx val="166673408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108711296"/>
+        <c:axId val="166673408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2172,7 +2172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108709376"/>
+        <c:crossAx val="166671488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2216,7 +2216,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2242,7 +2242,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2283,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2324,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2365,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2651,7 +2651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -2672,21 +2672,21 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="4"/>
@@ -2841,10 +2841,10 @@
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="K20" s="22"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -2892,10 +2892,10 @@
       <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="21"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -3065,10 +3065,10 @@
       <c r="H28" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="21"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -3694,10 +3694,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="J17" s="22"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -3733,10 +3733,10 @@
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -3889,10 +3889,10 @@
       <c r="E26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="21"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
@@ -4440,10 +4440,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="J17" s="22"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -4479,10 +4479,10 @@
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -4659,10 +4659,10 @@
       <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="21"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
@@ -4983,8 +4983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -5180,16 +5180,16 @@
       <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
@@ -5221,10 +5221,10 @@
         <v>156</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
@@ -5240,7 +5240,9 @@
       <c r="D25" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I25" t="s">
         <v>20</v>
       </c>
@@ -5391,10 +5393,10 @@
         <v>173</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="21"/>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -796,7 +796,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -901,11 +900,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="133531136"/>
-        <c:axId val="133533696"/>
+        <c:axId val="113739264"/>
+        <c:axId val="113741824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133531136"/>
+        <c:axId val="113739264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +935,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -981,14 +979,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133533696"/>
+        <c:crossAx val="113741824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133533696"/>
+        <c:axId val="113741824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1035,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1076,7 +1073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133531136"/>
+        <c:crossAx val="113739264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1118,7 +1115,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1249,11 +1246,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="133808512"/>
-        <c:axId val="133810432"/>
+        <c:axId val="114082176"/>
+        <c:axId val="114084096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133808512"/>
+        <c:axId val="114082176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,14 +1326,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133810432"/>
+        <c:crossAx val="114084096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133810432"/>
+        <c:axId val="114084096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1422,7 +1419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133808512"/>
+        <c:crossAx val="114082176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1466,7 +1463,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1609,11 +1606,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="136227456"/>
-        <c:axId val="136241920"/>
+        <c:axId val="114272896"/>
+        <c:axId val="114287360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136227456"/>
+        <c:axId val="114272896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,14 +1686,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136241920"/>
+        <c:crossAx val="114287360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136241920"/>
+        <c:axId val="114287360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1782,7 +1779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136227456"/>
+        <c:crossAx val="114272896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1826,7 +1823,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1999,11 +1996,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="166671488"/>
-        <c:axId val="166673408"/>
+        <c:axId val="114631808"/>
+        <c:axId val="114633728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166671488"/>
+        <c:axId val="114631808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,14 +2076,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166673408"/>
+        <c:crossAx val="114633728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166673408"/>
+        <c:axId val="114633728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2172,7 +2169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166671488"/>
+        <c:crossAx val="114631808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2216,7 +2213,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2242,7 +2239,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2280,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2321,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2362,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2651,7 +2648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -3561,7 +3558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -4983,8 +4980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipti.3QTRUS\Desktop\stickJumpForce\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88CE63B-60DF-4AC8-9EF7-EC07AF470E41}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="5010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="8" r:id="rId3"/>
-    <sheet name="Sprint 3" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="171">
   <si>
     <t>Product Name:</t>
   </si>
@@ -348,6 +353,9 @@
     </r>
   </si>
   <si>
+    <t>RERENCES</t>
+  </si>
+  <si>
     <t>INC</t>
   </si>
   <si>
@@ -525,68 +533,38 @@
     <t>Cancelled</t>
   </si>
   <si>
-    <t>"These two are references for me!" -Bhuwan</t>
-  </si>
-  <si>
-    <t>REFERENCES</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>Sketch and design main character</t>
-  </si>
-  <si>
-    <t>Make sprites for main character</t>
-  </si>
-  <si>
-    <t>Sketch and design enemy characters</t>
-  </si>
-  <si>
-    <t>Make sprites for enemy characters</t>
-  </si>
-  <si>
-    <t>DSG5</t>
-  </si>
-  <si>
-    <t>Design additional sprites</t>
-  </si>
-  <si>
-    <t>Game design</t>
-  </si>
-  <si>
-    <t>Design sprites for weapons</t>
-  </si>
-  <si>
-    <t>Design sprites for health potions and XP</t>
-  </si>
-  <si>
-    <t>Complete Level 1 design</t>
-  </si>
-  <si>
-    <t>Complete assigned SRA task</t>
-  </si>
-  <si>
-    <t>xxxxxxxxx</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxx</t>
-  </si>
-  <si>
-    <t>COMPLETE UNTIL HERE BY FRIDAY 10/19</t>
-  </si>
-  <si>
-    <t>xxxxxxxx</t>
+    <t>Game Controller Requirements</t>
+  </si>
+  <si>
+    <t>Story Line Requirements</t>
+  </si>
+  <si>
+    <t>Audio and Visual Requirements</t>
+  </si>
+  <si>
+    <t>AI requirement</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>5) Software process and UML Diagrams</t>
+  </si>
+  <si>
+    <t>7) Delovery and Schedule</t>
+  </si>
+  <si>
+    <t>6)Assumptions and constraints</t>
+  </si>
+  <si>
+    <t>Finalize and complete every requirements and combine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,16 +606,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,12 +632,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -681,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -725,11 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,9 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,8 +717,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -796,6 +763,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -804,10 +772,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -893,21 +863,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="113739264"/>
-        <c:axId val="113741824"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="96737536"/>
+        <c:axId val="119919744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113739264"/>
+        <c:axId val="96737536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -935,6 +915,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -945,6 +926,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -979,17 +961,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113741824"/>
+        <c:crossAx val="119919744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113741824"/>
+        <c:axId val="119919744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1035,6 +1019,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1045,6 +1030,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1073,7 +1059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113739264"/>
+        <c:crossAx val="96737536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1087,6 +1073,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1115,15 +1102,25 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1151,7 +1148,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1160,10 +1157,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1239,21 +1238,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="114082176"/>
-        <c:axId val="114084096"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="119179520"/>
+        <c:axId val="119996800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114082176"/>
+        <c:axId val="119179520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1281,7 +1290,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1292,6 +1301,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1326,19 +1336,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114084096"/>
+        <c:crossAx val="119996800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114084096"/>
+        <c:axId val="119996800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1380,7 +1392,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1391,6 +1403,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1419,7 +1432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114082176"/>
+        <c:crossAx val="119179520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1435,6 +1448,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1463,15 +1477,25 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1499,7 +1523,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1508,10 +1532,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1599,21 +1625,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="114272896"/>
-        <c:axId val="114287360"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="121631872"/>
+        <c:axId val="121633792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114272896"/>
+        <c:axId val="121631872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1641,7 +1677,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1652,6 +1688,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1686,19 +1723,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114287360"/>
+        <c:crossAx val="121633792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114287360"/>
+        <c:axId val="121633792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1740,7 +1779,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1751,6 +1790,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1779,7 +1819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114272896"/>
+        <c:crossAx val="121631872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1795,6 +1835,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1823,397 +1864,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint Burn Down Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sprint 3'!$A$7:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 3'!$B$7:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="114631808"/>
-        <c:axId val="114633728"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="114631808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="114633728"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="114633728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="30"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tasks Remaining</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="114631808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2239,7 +1890,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +1931,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,48 +1972,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,52 +2248,52 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="4"/>
@@ -2753,7 +2363,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="8">
-        <v>43399</v>
+        <v>43398</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2766,7 +2376,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="8">
-        <v>43413</v>
+        <v>43412</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2779,7 +2389,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="8">
-        <v>43420</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2797,7 +2407,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2838,14 +2448,14 @@
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="K20" s="23"/>
+      <c r="J20" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2868,7 +2478,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22">
         <f>B21+1</f>
@@ -2889,10 +2499,10 @@
       <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="22"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -3009,12 +2619,12 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
@@ -3030,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G27" t="s">
         <v>71</v>
@@ -3062,10 +2672,10 @@
       <c r="H28" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -3095,7 +2705,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
@@ -3109,21 +2719,21 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G30" t="s">
         <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
@@ -3137,16 +2747,16 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G31" t="s">
         <v>77</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3171,10 +2781,10 @@
         <v>73</v>
       </c>
       <c r="J32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3199,10 +2809,10 @@
         <v>73</v>
       </c>
       <c r="J33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3230,7 +2840,7 @@
         <v>75</v>
       </c>
       <c r="K34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3278,9 +2888,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -3292,16 +2900,10 @@
         <v>3</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
@@ -3555,24 +3157,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3601,7 +3203,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" s="10">
         <f>COUNT(A18:A45)</f>
@@ -3610,10 +3212,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3691,23 +3293,23 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="J17" s="23"/>
+      <c r="I17" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>42</v>
@@ -3719,21 +3321,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -3741,13 +3343,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
         <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>116</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>42</v>
@@ -3765,13 +3367,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>42</v>
@@ -3789,13 +3391,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>42</v>
@@ -3813,20 +3415,20 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3835,20 +3437,20 @@
         <v>7</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3857,13 +3459,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>42</v>
@@ -3878,18 +3480,18 @@
         <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="22"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
@@ -3900,19 +3502,19 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3924,19 +3526,19 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3948,19 +3550,19 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>42</v>
       </c>
       <c r="I29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3972,19 +3574,19 @@
         <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3996,10 +3598,10 @@
         <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>20</v>
@@ -4008,7 +3610,7 @@
         <v>75</v>
       </c>
       <c r="J31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4020,10 +3622,10 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>42</v>
@@ -4038,10 +3640,10 @@
         <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>20</v>
@@ -4053,13 +3655,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>41</v>
@@ -4074,10 +3676,10 @@
         <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>42</v>
@@ -4092,10 +3694,10 @@
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>42</v>
@@ -4110,10 +3712,10 @@
         <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>42</v>
@@ -4128,10 +3730,10 @@
         <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>41</v>
@@ -4285,24 +3887,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4331,19 +3933,19 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" s="10">
         <f>COUNT(A18:A45)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4437,10 +4039,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="J17" s="23"/>
+      <c r="I17" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -4450,10 +4052,10 @@
         <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>42</v>
@@ -4461,25 +4063,25 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <f t="shared" ref="A19:A34" si="0">A18+1</f>
+        <f t="shared" ref="A19:A42" si="0">A18+1</f>
         <v>2</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -4490,13 +4092,13 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>159</v>
+        <v>147</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
@@ -4514,13 +4116,13 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -4538,13 +4140,13 @@
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I22" t="s">
         <v>42</v>
@@ -4562,17 +4164,17 @@
         <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4584,17 +4186,17 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4606,19 +4208,19 @@
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4630,10 +4232,10 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>42</v>
@@ -4648,18 +4250,18 @@
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="22"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
@@ -4670,19 +4272,19 @@
         <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4694,19 +4296,19 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4718,19 +4320,19 @@
         <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4742,19 +4344,19 @@
         <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4763,13 +4365,13 @@
         <v>15</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>42</v>
@@ -4778,7 +4380,7 @@
         <v>75</v>
       </c>
       <c r="J32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4787,13 +4389,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>42</v>
@@ -4805,41 +4407,161 @@
         <v>17</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
         <v>113</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" s="13"/>
-      <c r="E38" s="4"/>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="B39" s="13"/>
-      <c r="E39" s="4"/>
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="B40" s="13"/>
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="B41" s="13"/>
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="B42" s="13"/>
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" s="13"/>
@@ -4974,922 +4696,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K90"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="42" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="9">
-        <v>43386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="9">
-        <v>43399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="10">
-        <f>COUNT(A23:A54)-1</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8" s="10">
-        <f>B7</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9" s="10">
-        <f t="shared" ref="B9:B20" si="0">B8</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>16</v>
-      </c>
-      <c r="B10" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>17</v>
-      </c>
-      <c r="B11" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>19</v>
-      </c>
-      <c r="B13" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>21</v>
-      </c>
-      <c r="B15" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>22</v>
-      </c>
-      <c r="B16" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
-        <v>23</v>
-      </c>
-      <c r="B17" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
-        <v>24</v>
-      </c>
-      <c r="B18" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
-        <v>25</v>
-      </c>
-      <c r="B19" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
-        <v>26</v>
-      </c>
-      <c r="B20" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24">
-        <f t="shared" ref="A24:A51" si="1">A23+1</f>
-        <v>2</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="I24" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="I27" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="I28" s="11"/>
-      <c r="J28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="I29" s="16"/>
-      <c r="J29" t="s">
-        <v>145</v>
-      </c>
-      <c r="K29" s="25"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>174</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="I30" t="s">
-        <v>158</v>
-      </c>
-      <c r="J30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s">
-        <v>172</v>
-      </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="I32" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="22"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="I33" t="s">
-        <v>102</v>
-      </c>
-      <c r="J33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="I34" t="s">
-        <v>104</v>
-      </c>
-      <c r="J34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="I35" t="s">
-        <v>106</v>
-      </c>
-      <c r="J35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="I36" t="s">
-        <v>108</v>
-      </c>
-      <c r="J36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
-        <v>15</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="B52" s="18"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="B53" s="18"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="B54" s="18"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="B55" s="18"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="B56" s="18"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="B57" s="18"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="B58" s="18"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="B59" s="18"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="B60" s="18"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="B61" s="18"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="B62" s="18"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="B63" s="18"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="B64" s="18"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="18"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="18"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="18"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="18"/>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="18"/>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="18"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="18"/>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="18"/>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="18"/>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="18"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="18"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="18"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="18"/>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="18"/>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="18"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="18"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="B81" s="18"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="B82" s="18"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>30</v>
-      </c>
-      <c r="B83" s="18"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" s="18"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>31</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" t="s">
-        <v>28</v>
-      </c>
-      <c r="D86" t="s">
-        <v>32</v>
-      </c>
-      <c r="E86" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" t="s">
-        <v>35</v>
-      </c>
-      <c r="E87" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" t="s">
-        <v>40</v>
-      </c>
-      <c r="E90" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I24:J24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipti.3QTRUS\Desktop\stickJumpForce\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88CE63B-60DF-4AC8-9EF7-EC07AF470E41}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="5010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="8" r:id="rId3"/>
+    <sheet name="Sprint 3" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="180">
   <si>
     <t>Product Name:</t>
   </si>
@@ -353,9 +348,6 @@
     </r>
   </si>
   <si>
-    <t>RERENCES</t>
-  </si>
-  <si>
     <t>INC</t>
   </si>
   <si>
@@ -533,38 +525,68 @@
     <t>Cancelled</t>
   </si>
   <si>
-    <t>Game Controller Requirements</t>
-  </si>
-  <si>
-    <t>Story Line Requirements</t>
-  </si>
-  <si>
-    <t>Audio and Visual Requirements</t>
-  </si>
-  <si>
-    <t>AI requirement</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>5) Software process and UML Diagrams</t>
-  </si>
-  <si>
-    <t>7) Delovery and Schedule</t>
-  </si>
-  <si>
-    <t>6)Assumptions and constraints</t>
-  </si>
-  <si>
-    <t>Finalize and complete every requirements and combine</t>
+    <t>"These two are references for me!" -Bhuwan</t>
+  </si>
+  <si>
+    <t>REFERENCES</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Sketch and design main character</t>
+  </si>
+  <si>
+    <t>Make sprites for main character</t>
+  </si>
+  <si>
+    <t>Sketch and design enemy characters</t>
+  </si>
+  <si>
+    <t>Make sprites for enemy characters</t>
+  </si>
+  <si>
+    <t>DSG5</t>
+  </si>
+  <si>
+    <t>Design additional sprites</t>
+  </si>
+  <si>
+    <t>Game design</t>
+  </si>
+  <si>
+    <t>Design sprites for weapons</t>
+  </si>
+  <si>
+    <t>Design sprites for health potions and XP</t>
+  </si>
+  <si>
+    <t>Complete Level 1 design</t>
+  </si>
+  <si>
+    <t>Complete assigned SRA task</t>
+  </si>
+  <si>
+    <t>xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>COMPLETE UNTIL HERE BY FRIDAY 10/19</t>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +628,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +662,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -645,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -689,7 +725,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,6 +738,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,18 +760,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -763,7 +796,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -772,12 +805,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -863,31 +894,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="96737536"/>
-        <c:axId val="119919744"/>
+        <c:marker val="1"/>
+        <c:axId val="133531136"/>
+        <c:axId val="133533696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96737536"/>
+        <c:axId val="133531136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -915,7 +936,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -926,7 +947,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -961,19 +981,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119919744"/>
+        <c:crossAx val="133533696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119919744"/>
+        <c:axId val="133533696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1019,7 +1037,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1030,7 +1048,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1059,7 +1076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96737536"/>
+        <c:crossAx val="133531136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1073,7 +1090,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1102,25 +1118,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1148,7 +1154,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1157,12 +1163,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1238,31 +1242,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="119179520"/>
-        <c:axId val="119996800"/>
+        <c:marker val="1"/>
+        <c:axId val="133808512"/>
+        <c:axId val="133810432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119179520"/>
+        <c:axId val="133808512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1290,7 +1284,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1301,7 +1295,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1336,21 +1329,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119996800"/>
+        <c:crossAx val="133810432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119996800"/>
+        <c:axId val="133810432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1392,7 +1383,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1403,7 +1394,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1432,7 +1422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119179520"/>
+        <c:crossAx val="133808512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1448,7 +1438,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1477,25 +1466,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1523,7 +1502,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1532,12 +1511,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1625,31 +1602,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="121631872"/>
-        <c:axId val="121633792"/>
+        <c:marker val="1"/>
+        <c:axId val="136227456"/>
+        <c:axId val="136241920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121631872"/>
+        <c:axId val="136227456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1677,7 +1644,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1688,7 +1655,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1723,21 +1689,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121633792"/>
+        <c:crossAx val="136241920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121633792"/>
+        <c:axId val="136241920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1779,7 +1743,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1790,7 +1754,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1819,7 +1782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121631872"/>
+        <c:crossAx val="136227456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1835,7 +1798,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1864,7 +1826,397 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Down Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 3'!$A$7:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$B$7:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="166671488"/>
+        <c:axId val="166673408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166671488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166673408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166673408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166671488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1890,7 +2242,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +2283,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +2324,48 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,52 +2641,52 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="4"/>
@@ -2363,7 +2756,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="8">
-        <v>43398</v>
+        <v>43399</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2376,7 +2769,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="8">
-        <v>43412</v>
+        <v>43413</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2389,7 +2782,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="8">
-        <v>43419</v>
+        <v>43420</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2407,7 +2800,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2448,14 +2841,14 @@
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="21"/>
+      <c r="J20" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2478,7 +2871,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22">
         <f>B21+1</f>
@@ -2499,10 +2892,10 @@
       <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="20"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -2619,12 +3012,12 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
@@ -2640,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
         <v>71</v>
@@ -2672,10 +3065,10 @@
       <c r="H28" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="20"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -2705,7 +3098,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
@@ -2719,21 +3112,21 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
         <v>71</v>
       </c>
       <c r="J30" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" t="s">
         <v>103</v>
-      </c>
-      <c r="K30" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
@@ -2747,16 +3140,16 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G31" t="s">
         <v>77</v>
       </c>
       <c r="J31" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" t="s">
         <v>105</v>
-      </c>
-      <c r="K31" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2781,10 +3174,10 @@
         <v>73</v>
       </c>
       <c r="J32" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" t="s">
         <v>107</v>
-      </c>
-      <c r="K32" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2809,10 +3202,10 @@
         <v>73</v>
       </c>
       <c r="J33" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" t="s">
         <v>109</v>
-      </c>
-      <c r="K33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2840,7 +3233,7 @@
         <v>75</v>
       </c>
       <c r="K34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2888,7 +3281,9 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="B37">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2900,10 +3295,16 @@
         <v>3</v>
       </c>
       <c r="E37" s="1"/>
+      <c r="F37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
@@ -3157,24 +3558,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3203,7 +3604,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="10">
         <f>COUNT(A18:A45)</f>
@@ -3212,10 +3613,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3293,23 +3694,23 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="21"/>
+      <c r="I17" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>42</v>
@@ -3321,21 +3722,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -3343,13 +3744,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>42</v>
@@ -3367,13 +3768,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
         <v>118</v>
-      </c>
-      <c r="D21" t="s">
-        <v>119</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>42</v>
@@ -3391,13 +3792,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
         <v>120</v>
-      </c>
-      <c r="D22" t="s">
-        <v>121</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>42</v>
@@ -3415,20 +3816,20 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3437,20 +3838,20 @@
         <v>7</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3459,13 +3860,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
         <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" t="s">
-        <v>127</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>42</v>
@@ -3480,18 +3881,18 @@
         <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
@@ -3502,19 +3903,19 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I27" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" t="s">
         <v>103</v>
-      </c>
-      <c r="J27" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3526,19 +3927,19 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I28" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" t="s">
         <v>105</v>
-      </c>
-      <c r="J28" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3550,19 +3951,19 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>42</v>
       </c>
       <c r="I29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" t="s">
         <v>107</v>
-      </c>
-      <c r="J29" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3574,19 +3975,19 @@
         <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" t="s">
         <v>109</v>
-      </c>
-      <c r="J30" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3598,10 +3999,10 @@
         <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>20</v>
@@ -3610,7 +4011,7 @@
         <v>75</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3622,10 +4023,10 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>42</v>
@@ -3640,10 +4041,10 @@
         <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>20</v>
@@ -3655,13 +4056,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>41</v>
@@ -3676,10 +4077,10 @@
         <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>42</v>
@@ -3694,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>42</v>
@@ -3712,10 +4113,10 @@
         <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>42</v>
@@ -3730,10 +4131,10 @@
         <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>41</v>
@@ -3887,24 +4288,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="55.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3933,19 +4334,19 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="10">
         <f>COUNT(A18:A45)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4039,10 +4440,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="21"/>
+      <c r="I17" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -4052,10 +4453,10 @@
         <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>42</v>
@@ -4063,25 +4464,25 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <f t="shared" ref="A19:A42" si="0">A18+1</f>
+        <f t="shared" ref="A19:A34" si="0">A18+1</f>
         <v>2</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -4092,13 +4493,13 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>166</v>
+        <v>146</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
@@ -4116,13 +4517,13 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -4140,13 +4541,13 @@
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
         <v>42</v>
@@ -4164,17 +4565,17 @@
         <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4186,17 +4587,17 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4208,19 +4609,19 @@
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4232,10 +4633,10 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>42</v>
@@ -4250,18 +4651,18 @@
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="20"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
@@ -4272,19 +4673,19 @@
         <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" t="s">
         <v>103</v>
-      </c>
-      <c r="J28" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4296,19 +4697,19 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" t="s">
         <v>105</v>
-      </c>
-      <c r="J29" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4320,19 +4721,19 @@
         <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" t="s">
         <v>107</v>
-      </c>
-      <c r="J30" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4344,19 +4745,19 @@
         <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I31" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" t="s">
         <v>109</v>
-      </c>
-      <c r="J31" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4365,13 +4766,13 @@
         <v>15</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>42</v>
@@ -4380,7 +4781,7 @@
         <v>75</v>
       </c>
       <c r="J32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4389,13 +4790,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>42</v>
@@ -4407,161 +4808,41 @@
         <v>17</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>42</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>160</v>
-      </c>
+      <c r="B35"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>160</v>
-      </c>
+      <c r="B36"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>160</v>
-      </c>
+      <c r="B37"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>160</v>
-      </c>
+      <c r="B38" s="13"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>160</v>
-      </c>
+      <c r="B39" s="13"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>160</v>
-      </c>
+      <c r="B40" s="13"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>160</v>
-      </c>
+      <c r="B41" s="13"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>160</v>
-      </c>
+      <c r="B42" s="13"/>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" s="13"/>
@@ -4696,4 +4977,922 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K90"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="55.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9">
+        <v>43386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="10">
+        <f>COUNT(A23:A54)-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10">
+        <f>B7</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10">
+        <f t="shared" ref="B9:B20" si="0">B8</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>26</v>
+      </c>
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <f t="shared" ref="A24:A51" si="1">A23+1</f>
+        <v>2</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="I24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="I28" s="11"/>
+      <c r="J28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="I29" s="16"/>
+      <c r="J29" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="I30" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="I32" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="I33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="I34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="I35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="I36" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="18"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="18"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" s="18"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" s="18"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="18"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="18"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" s="18"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" s="18"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" s="18"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" s="18"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="18"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="18"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="18"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="18"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="18"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="18"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="18"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="18"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="18"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="18"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="18"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="18"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="18"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="18"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="18"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="18"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="18"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="18"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="B81" s="18"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="B82" s="18"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="18"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="18"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I24:J24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harisqureshi/Desktop/stickJumpForce/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FC6FAB-A6F7-8345-92C8-A1A76D7B9087}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -12,22 +18,17 @@
     <sheet name="Sprint 2" sheetId="8" r:id="rId3"/>
     <sheet name="Sprint 3" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="180">
   <si>
     <t>Product Name:</t>
   </si>
@@ -585,7 +586,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -760,8 +761,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -796,7 +807,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -805,10 +816,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -894,13 +907,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="133531136"/>
         <c:axId val="133533696"/>
       </c:lineChart>
@@ -909,6 +931,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -936,7 +959,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -947,6 +970,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -986,12 +1010,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="133533696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1037,7 +1063,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1048,6 +1074,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1090,6 +1117,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1125,8 +1153,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1154,7 +1192,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1163,10 +1201,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1242,13 +1282,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="133808512"/>
         <c:axId val="133810432"/>
       </c:lineChart>
@@ -1257,6 +1306,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1284,7 +1334,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1295,6 +1345,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1334,6 +1385,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="133810432"/>
@@ -1342,6 +1394,7 @@
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1383,7 +1436,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1394,6 +1447,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1438,6 +1492,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1473,8 +1528,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1502,7 +1567,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1511,10 +1576,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1602,13 +1669,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="136227456"/>
         <c:axId val="136241920"/>
       </c:lineChart>
@@ -1617,6 +1693,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1644,7 +1721,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1655,6 +1732,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1694,6 +1772,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="136241920"/>
@@ -1702,6 +1781,7 @@
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1743,7 +1823,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1754,6 +1834,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1798,6 +1879,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1833,8 +1915,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1862,7 +1954,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1871,10 +1963,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1992,13 +2086,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="166671488"/>
         <c:axId val="166673408"/>
       </c:lineChart>
@@ -2007,6 +2110,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2034,7 +2138,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2045,6 +2149,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2084,6 +2189,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="166673408"/>
@@ -2092,6 +2198,7 @@
           <c:max val="30"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2133,7 +2240,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2144,6 +2251,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2188,6 +2296,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2242,7 +2351,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2392,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2433,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2474,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,34 +2750,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3558,24 +3667,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4288,24 +4397,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I17" sqref="I17:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4980,24 +5089,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="42" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5333,7 +5442,9 @@
       <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I29" s="16"/>
       <c r="J29" t="s">
         <v>145</v>

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harisqureshi/Desktop/stickJumpForce/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipti.3QTRUS\Desktop\Classes\IntroSoftwareEngr\stickJumpForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FC6FAB-A6F7-8345-92C8-A1A76D7B9087}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5D8D42-2443-43B7-A8D2-7BEF8A64C813}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="188">
   <si>
     <t>Product Name:</t>
   </si>
@@ -581,6 +586,30 @@
   </si>
   <si>
     <t>xxxxxxxx</t>
+  </si>
+  <si>
+    <t>Game Controller Requirements</t>
+  </si>
+  <si>
+    <t>Story Line Requirements</t>
+  </si>
+  <si>
+    <t>Audio and Visual Requirements</t>
+  </si>
+  <si>
+    <t>AI requirement</t>
+  </si>
+  <si>
+    <t>5) Software process and UML Diagrams</t>
+  </si>
+  <si>
+    <t>7) Delovery and Schedule</t>
+  </si>
+  <si>
+    <t>6)Assumptions and constraints</t>
+  </si>
+  <si>
+    <t>Finalize and complete every requirements and combine</t>
   </si>
 </sst>
 </file>
@@ -682,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -731,6 +760,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2760,42 +2792,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="19">
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="4"/>
@@ -2950,10 +2982,10 @@
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="K20" s="23"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -3001,10 +3033,10 @@
       <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="22"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -3174,10 +3206,10 @@
       <c r="H28" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -3674,17 +3706,17 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3803,10 +3835,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -3842,10 +3874,10 @@
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -3998,10 +4030,10 @@
       <c r="E26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="22"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
@@ -4400,21 +4432,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="55.5" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4447,7 +4479,7 @@
       </c>
       <c r="B5" s="10">
         <f>COUNT(A18:A45)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4549,10 +4581,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -4573,7 +4605,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <f t="shared" ref="A19:A34" si="0">A18+1</f>
+        <f t="shared" ref="A19:A43" si="0">A18+1</f>
         <v>2</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -4588,10 +4620,10 @@
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -4768,10 +4800,10 @@
       <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="22"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
@@ -4916,7 +4948,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="22" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
@@ -4925,33 +4957,153 @@
       <c r="D34" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="B35"/>
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="B36"/>
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="B37"/>
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="B38" s="13"/>
-      <c r="E38" s="4"/>
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="B39" s="13"/>
-      <c r="E39" s="4"/>
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="B40" s="13"/>
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="B41" s="13"/>
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="B42" s="13"/>
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" s="13"/>
@@ -5096,17 +5248,17 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="55.5" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="42" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5295,10 +5447,10 @@
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="23"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
@@ -5330,10 +5482,10 @@
         <v>156</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="22"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
@@ -5424,7 +5576,7 @@
       <c r="J28" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="26" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5449,7 +5601,7 @@
       <c r="J29" t="s">
         <v>145</v>
       </c>
-      <c r="K29" s="25"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
@@ -5504,10 +5656,10 @@
         <v>173</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="22"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipti.3QTRUS\Desktop\Classes\IntroSoftwareEngr\stickJumpForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5D8D42-2443-43B7-A8D2-7BEF8A64C813}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A3E716-E492-41AF-A5CA-E1B42D3B6361}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="187">
   <si>
     <t>Product Name:</t>
   </si>
@@ -571,9 +571,6 @@
   </si>
   <si>
     <t>Complete Level 1 design</t>
-  </si>
-  <si>
-    <t>Complete assigned SRA task</t>
   </si>
   <si>
     <t>xxxxxxxxx</t>
@@ -4432,8 +4429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4479,7 +4476,7 @@
       </c>
       <c r="B5" s="10">
         <f>COUNT(A18:A45)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4948,7 +4945,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
@@ -4957,153 +4954,33 @@
       <c r="D34" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="B35"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="B36"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="B37"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" t="s">
-        <v>183</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="B38" s="13"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="B39" s="13"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="B40" s="13"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="B41" s="13"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="B42" s="13"/>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" s="13"/>
@@ -5244,8 +5121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5291,8 +5168,8 @@
         <v>143</v>
       </c>
       <c r="B5" s="10">
-        <f>COUNT(A23:A54)-1</f>
-        <v>28</v>
+        <f>COUNT(A23:A41)-1</f>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5666,16 +5543,18 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="22" t="s">
         <v>153</v>
       </c>
       <c r="C33" t="s">
         <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="I33" t="s">
         <v>102</v>
       </c>
@@ -5688,16 +5567,18 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>153</v>
+      <c r="B34" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="I34" t="s">
         <v>104</v>
       </c>
@@ -5710,16 +5591,18 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>153</v>
+      <c r="B35" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C35" t="s">
         <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="I35" t="s">
         <v>106</v>
       </c>
@@ -5732,16 +5615,18 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>153</v>
+      <c r="B36" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="I36" t="s">
         <v>108</v>
       </c>
@@ -5751,22 +5636,20 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>179</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="I37" t="s">
         <v>75</v>
@@ -5777,250 +5660,306 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>15</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>163</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>164</v>
+        <v>17</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>163</v>
+        <v>18</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>185</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>163</v>
+        <v>19</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>186</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" t="s">
-        <v>168</v>
+        <v>0</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f>A43+1</f>
+        <v>16</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
         <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f>A44+1</f>
+        <v>17</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
         <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f>A45+1</f>
+        <v>18</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
         <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f>A46+1</f>
+        <v>19</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f>A47+1</f>
+        <v>20</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>A48+1</f>
+        <v>21</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f>A49+1</f>
+        <v>22</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f>A50+1</f>
+        <v>23</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <f>A51+1</f>
+        <v>24</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <f>A52+1</f>
+        <v>25</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <f>A53+1</f>
+        <v>26</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <f>A54+1</f>
+        <v>27</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <f>A55+1</f>
         <v>28</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C56" t="s">
         <v>117</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D56" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="B52" s="18"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="B53" s="18"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="B54" s="18"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="B55" s="18"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="B56" s="18"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="B57" s="18"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="B58" s="18"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="B59" s="18"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="B60" s="18"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="B61" s="18"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="B62" s="18"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="B63" s="18"/>
     </row>
     <row r="64" spans="1:4">
       <c r="B64" s="18"/>

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5004"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12168" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="187">
   <si>
     <t>Product Name:</t>
   </si>
@@ -567,9 +567,6 @@
     <t>Complete Level 1 design</t>
   </si>
   <si>
-    <t>Complete assigned SRA task</t>
-  </si>
-  <si>
     <t>xxxxxxxxx</t>
   </si>
   <si>
@@ -580,6 +577,30 @@
   </si>
   <si>
     <t>xxxxxxxx</t>
+  </si>
+  <si>
+    <t>Game Controller Requirements</t>
+  </si>
+  <si>
+    <t>Story Line Requirements</t>
+  </si>
+  <si>
+    <t>Audio and Visual Requirements</t>
+  </si>
+  <si>
+    <t>AI requirement</t>
+  </si>
+  <si>
+    <t>5) Software process and UML Diagrams</t>
+  </si>
+  <si>
+    <t>7) Delovery and Schedule</t>
+  </si>
+  <si>
+    <t>6)Assumptions and constraints</t>
+  </si>
+  <si>
+    <t>Finalize and complete every requirements and combine</t>
   </si>
 </sst>
 </file>
@@ -681,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -730,6 +751,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,7 +820,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -900,12 +923,13 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="133531136"/>
-        <c:axId val="133533696"/>
+        <c:axId val="153921792"/>
+        <c:axId val="153923968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133531136"/>
+        <c:axId val="153921792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +960,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -981,14 +1004,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133533696"/>
+        <c:crossAx val="153923968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133533696"/>
+        <c:axId val="153923968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1060,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1076,7 +1098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133531136"/>
+        <c:crossAx val="153921792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1118,13 +1140,717 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Down Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1'!$A$7:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$B$7:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="154403968"/>
+        <c:axId val="154405888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="154403968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154405888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154405888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154403968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Down Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2'!$A$7:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$B$7:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="154611712"/>
+        <c:axId val="154613632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="154611712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154613632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154613632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154611712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1184,60 +1910,102 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 1'!$A$7:$A$13</c:f>
+              <c:f>'Sprint 3'!$A$7:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$B$7:$B$13</c:f>
+              <c:f>'Sprint 3'!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,12 +2016,13 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="133808512"/>
-        <c:axId val="133810432"/>
+        <c:axId val="154372736"/>
+        <c:axId val="154383104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133808512"/>
+        <c:axId val="154372736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,764 +2098,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133810432"/>
+        <c:crossAx val="154383104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133810432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="22"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tasks Remaining</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="133808512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint Burn Down Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sprint 2'!$A$7:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 2'!$B$7:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="136227456"/>
-        <c:axId val="136241920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="136227456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="136241920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="136241920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="22"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tasks Remaining</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="136227456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint Burn Down Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sprint 3'!$A$7:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 3'!$B$7:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="166671488"/>
-        <c:axId val="166673408"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="166671488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="166673408"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="166673408"/>
+        <c:axId val="154383104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2172,7 +2191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166671488"/>
+        <c:crossAx val="154372736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2216,7 +2235,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2365,7 +2384,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -2672,21 +2691,21 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="4"/>
@@ -2841,10 +2860,10 @@
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="K20" s="23"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -2892,10 +2911,10 @@
       <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="22"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -3065,10 +3084,10 @@
       <c r="H28" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -3694,10 +3713,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -3733,10 +3752,10 @@
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -3889,10 +3908,10 @@
       <c r="E26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="22"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
@@ -4292,7 +4311,7 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J17"/>
+      <selection activeCell="A34" sqref="A34:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -4440,10 +4459,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -4479,10 +4498,10 @@
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -4659,10 +4678,10 @@
       <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="22"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
@@ -4981,10 +5000,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -5030,8 +5049,8 @@
         <v>143</v>
       </c>
       <c r="B5" s="10">
-        <f>COUNT(A23:A54)-1</f>
-        <v>28</v>
+        <f>COUNT(A23:A41)-1</f>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5186,10 +5205,10 @@
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="23"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
@@ -5204,11 +5223,13 @@
       <c r="D23" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <f t="shared" ref="A24:A51" si="1">A23+1</f>
+        <f t="shared" ref="A24:A32" si="1">A23+1</f>
         <v>2</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -5221,10 +5242,10 @@
         <v>156</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="22"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
@@ -5315,7 +5336,7 @@
       <c r="J28" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="26" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5333,12 +5354,14 @@
       <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I29" s="16"/>
       <c r="J29" t="s">
         <v>145</v>
       </c>
-      <c r="K29" s="25"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
@@ -5354,7 +5377,9 @@
       <c r="D30" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I30" t="s">
         <v>158</v>
       </c>
@@ -5393,26 +5418,30 @@
         <v>173</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="22"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="C33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="I33" t="s">
         <v>102</v>
       </c>
@@ -5422,19 +5451,20 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>153</v>
+        <v>11</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="I34" t="s">
         <v>104</v>
       </c>
@@ -5444,19 +5474,21 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>153</v>
+        <f>A34+1</f>
+        <v>12</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C35" t="s">
         <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="I35" t="s">
         <v>106</v>
       </c>
@@ -5466,19 +5498,21 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>153</v>
+        <f>A35+1</f>
+        <v>13</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="I36" t="s">
         <v>108</v>
       </c>
@@ -5488,22 +5522,20 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>179</v>
+        <f>A36+1</f>
+        <v>14</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="I37" t="s">
         <v>75</v>
@@ -5514,268 +5546,287 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
+        <f>A37+1</f>
         <v>15</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>163</v>
+      <c r="B38" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f>A38+1</f>
         <v>16</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>164</v>
+      <c r="B39" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A40:A55" si="2">A39+1</f>
         <v>17</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>163</v>
+      <c r="B40" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>185</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>163</v>
+      <c r="B41" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>186</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
         <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
         <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
         <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
         <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
         <v>117</v>
       </c>
       <c r="D51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="B52" s="18"/>
-    </row>
     <row r="53" spans="1:4">
-      <c r="B53" s="18"/>
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="B54" s="18"/>
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="B55" s="18"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="B56" s="18"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="B57" s="18"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="B58" s="18"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="B59" s="18"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="B60" s="18"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="B61" s="18"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="B62" s="18"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="B63" s="18"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="B64" s="18"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="18"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="18"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="18"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="18"/>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="18"/>
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="18"/>
@@ -5814,32 +5865,46 @@
       <c r="B81" s="18"/>
     </row>
     <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
       <c r="B82" s="18"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B83" s="18"/>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" s="18"/>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
         <v>29</v>
@@ -5847,40 +5912,23 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" t="s">
         <v>28</v>
       </c>
-      <c r="D87" t="s">
-        <v>35</v>
-      </c>
-      <c r="E87" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="D89" t="s">
         <v>40</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E89" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="184">
   <si>
     <t>Product Name:</t>
   </si>
@@ -567,27 +567,9 @@
     <t>Complete Level 1 design</t>
   </si>
   <si>
-    <t>xxxxxxxxx</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxx</t>
-  </si>
-  <si>
     <t>COMPLETE UNTIL HERE BY FRIDAY 10/19</t>
   </si>
   <si>
-    <t>xxxxxxxx</t>
-  </si>
-  <si>
-    <t>Game Controller Requirements</t>
-  </si>
-  <si>
-    <t>Story Line Requirements</t>
-  </si>
-  <si>
-    <t>Audio and Visual Requirements</t>
-  </si>
-  <si>
     <t>AI requirement</t>
   </si>
   <si>
@@ -601,6 +583,15 @@
   </si>
   <si>
     <t>Finalize and complete every requirements and combine</t>
+  </si>
+  <si>
+    <t>Menu System Requirements</t>
+  </si>
+  <si>
+    <t>Graphics, and Inventories/Upgrades requirements</t>
+  </si>
+  <si>
+    <t>Character movement requirements</t>
   </si>
 </sst>
 </file>
@@ -658,7 +649,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,6 +680,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -702,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -766,6 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,13 +921,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="153921792"/>
-        <c:axId val="153923968"/>
+        <c:axId val="46387200"/>
+        <c:axId val="46390656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153921792"/>
+        <c:axId val="46387200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,14 +1001,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153923968"/>
+        <c:crossAx val="46390656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153923968"/>
+        <c:axId val="46390656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,7 +1095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153921792"/>
+        <c:crossAx val="46387200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1140,7 +1137,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1269,13 +1266,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="154403968"/>
-        <c:axId val="154405888"/>
+        <c:axId val="107197184"/>
+        <c:axId val="107199104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154403968"/>
+        <c:axId val="107197184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,14 +1346,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154405888"/>
+        <c:crossAx val="107199104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154405888"/>
+        <c:axId val="107199104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1442,7 +1438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154403968"/>
+        <c:crossAx val="107197184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1486,7 +1482,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1627,13 +1623,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="154611712"/>
-        <c:axId val="154613632"/>
+        <c:axId val="105457536"/>
+        <c:axId val="105463808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154611712"/>
+        <c:axId val="105457536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,14 +1703,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154613632"/>
+        <c:crossAx val="105463808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154613632"/>
+        <c:axId val="105463808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1800,7 +1795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154611712"/>
+        <c:crossAx val="105457536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1844,7 +1839,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1987,25 +1982,25 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2016,13 +2011,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="154372736"/>
-        <c:axId val="154383104"/>
+        <c:axId val="105526016"/>
+        <c:axId val="105527936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154372736"/>
+        <c:axId val="105526016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2098,14 +2092,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154383104"/>
+        <c:crossAx val="105527936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154383104"/>
+        <c:axId val="105527936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2191,7 +2185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154372736"/>
+        <c:crossAx val="105526016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2235,7 +2229,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2261,7 +2255,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2296,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2337,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2378,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5002,8 +4996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -5128,8 +5122,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5137,8 +5130,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5147,7 +5139,7 @@
       </c>
       <c r="B16" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5156,7 +5148,7 @@
       </c>
       <c r="B17" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5165,7 +5157,7 @@
       </c>
       <c r="B18" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5174,7 +5166,7 @@
       </c>
       <c r="B19" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5183,7 +5175,7 @@
       </c>
       <c r="B20" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5223,7 +5215,7 @@
       <c r="D23" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="27" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5241,7 +5233,7 @@
       <c r="D24" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="16"/>
       <c r="I24" s="23" t="s">
         <v>82</v>
       </c>
@@ -5261,8 +5253,8 @@
       <c r="D25" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>41</v>
+      <c r="E25" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
@@ -5285,7 +5277,7 @@
       <c r="D26" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I26" t="s">
@@ -5309,7 +5301,7 @@
       <c r="D27" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="16"/>
       <c r="I27" t="s">
         <v>42</v>
       </c>
@@ -5331,7 +5323,7 @@
       <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="16"/>
       <c r="I28" s="11"/>
       <c r="J28" t="s">
         <v>144</v>
@@ -5354,7 +5346,7 @@
       <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="16"/>
@@ -5377,7 +5369,7 @@
       <c r="D30" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I30" t="s">
@@ -5401,7 +5393,7 @@
       <c r="D31" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
@@ -5417,7 +5409,7 @@
       <c r="D32" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="16"/>
       <c r="I32" s="23" t="s">
         <v>11</v>
       </c>
@@ -5427,21 +5419,13 @@
       <c r="A33">
         <v>0</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="I33" t="s">
         <v>102</v>
       </c>
@@ -5460,11 +5444,9 @@
         <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>159</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E34" s="4"/>
       <c r="I34" t="s">
         <v>104</v>
       </c>
@@ -5484,11 +5466,9 @@
         <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>159</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="I35" t="s">
         <v>106</v>
       </c>
@@ -5510,8 +5490,8 @@
       <c r="D36" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>159</v>
+      <c r="E36" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I36" t="s">
         <v>108</v>
@@ -5532,11 +5512,9 @@
         <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>159</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="I37" t="s">
         <v>75</v>
       </c>
@@ -5556,11 +5534,9 @@
         <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>159</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
@@ -5574,10 +5550,10 @@
         <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>159</v>
+        <v>178</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5592,11 +5568,9 @@
         <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>159</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
@@ -5610,11 +5584,9 @@
         <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>159</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
@@ -5662,6 +5634,7 @@
       <c r="D44" t="s">
         <v>166</v>
       </c>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
@@ -5677,6 +5650,7 @@
       <c r="D45" t="s">
         <v>166</v>
       </c>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
@@ -5692,6 +5666,7 @@
       <c r="D46" t="s">
         <v>168</v>
       </c>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
@@ -5707,6 +5682,7 @@
       <c r="D47" t="s">
         <v>168</v>
       </c>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -649,7 +649,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,12 +680,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -699,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -763,7 +757,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,11 +915,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="46387200"/>
-        <c:axId val="46390656"/>
+        <c:axId val="136406528"/>
+        <c:axId val="136421376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46387200"/>
+        <c:axId val="136406528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,14 +994,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46390656"/>
+        <c:crossAx val="136421376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46390656"/>
+        <c:axId val="136421376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46387200"/>
+        <c:crossAx val="136406528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1137,7 +1130,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1267,11 +1260,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="107197184"/>
-        <c:axId val="107199104"/>
+        <c:axId val="137953664"/>
+        <c:axId val="137955584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107197184"/>
+        <c:axId val="137953664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,14 +1339,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107199104"/>
+        <c:crossAx val="137955584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107199104"/>
+        <c:axId val="137955584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1438,7 +1431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107197184"/>
+        <c:crossAx val="137953664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1482,7 +1475,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1624,11 +1617,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105457536"/>
-        <c:axId val="105463808"/>
+        <c:axId val="138001024"/>
+        <c:axId val="138015488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105457536"/>
+        <c:axId val="138001024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,14 +1696,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105463808"/>
+        <c:crossAx val="138015488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105463808"/>
+        <c:axId val="138015488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1795,7 +1788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105457536"/>
+        <c:crossAx val="138001024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1839,7 +1832,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1991,16 +1984,16 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2012,11 +2005,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105526016"/>
-        <c:axId val="105527936"/>
+        <c:axId val="138237056"/>
+        <c:axId val="138238976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105526016"/>
+        <c:axId val="138237056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,14 +2085,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105527936"/>
+        <c:crossAx val="138238976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105527936"/>
+        <c:axId val="138238976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2185,7 +2178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105526016"/>
+        <c:crossAx val="138237056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2229,7 +2222,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2255,7 +2248,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2289,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2330,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2371,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4996,8 +4989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -5147,8 +5140,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="10">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5157,7 +5149,7 @@
       </c>
       <c r="B18" s="10">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5166,7 +5158,7 @@
       </c>
       <c r="B19" s="10">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5175,7 +5167,7 @@
       </c>
       <c r="B20" s="10">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5215,7 +5207,7 @@
       <c r="D23" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5253,7 +5245,7 @@
       <c r="D25" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I25" t="s">
@@ -5490,7 +5482,7 @@
       <c r="D36" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I36" t="s">
@@ -5552,7 +5544,7 @@
       <c r="D39" t="s">
         <v>178</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="11" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="184">
   <si>
     <t>Product Name:</t>
   </si>
@@ -915,11 +915,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="136406528"/>
-        <c:axId val="136421376"/>
+        <c:axId val="124741120"/>
+        <c:axId val="124755968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136406528"/>
+        <c:axId val="124741120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,14 +994,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136421376"/>
+        <c:crossAx val="124755968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136421376"/>
+        <c:axId val="124755968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136406528"/>
+        <c:crossAx val="124741120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1130,7 +1130,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1260,11 +1260,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="137953664"/>
-        <c:axId val="137955584"/>
+        <c:axId val="126353792"/>
+        <c:axId val="126355712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137953664"/>
+        <c:axId val="126353792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,14 +1339,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137955584"/>
+        <c:crossAx val="126355712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137955584"/>
+        <c:axId val="126355712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1431,7 +1431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137953664"/>
+        <c:crossAx val="126353792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1475,7 +1475,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1617,11 +1617,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="138001024"/>
-        <c:axId val="138015488"/>
+        <c:axId val="126401152"/>
+        <c:axId val="126415616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138001024"/>
+        <c:axId val="126401152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,14 +1696,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138015488"/>
+        <c:crossAx val="126415616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138015488"/>
+        <c:axId val="126415616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1788,7 +1788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138001024"/>
+        <c:crossAx val="126401152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1832,7 +1832,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1990,10 +1990,10 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,11 +2005,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="138237056"/>
-        <c:axId val="138238976"/>
+        <c:axId val="126637184"/>
+        <c:axId val="126639104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138237056"/>
+        <c:axId val="126637184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,14 +2085,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138238976"/>
+        <c:crossAx val="126639104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138238976"/>
+        <c:axId val="126639104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2178,7 +2178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138237056"/>
+        <c:crossAx val="126637184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2222,7 +2222,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2248,7 +2248,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2289,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2330,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2371,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4989,8 +4989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -5157,8 +5157,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="10">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5167,7 +5166,7 @@
       </c>
       <c r="B20" s="10">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5438,7 +5437,9 @@
       <c r="D34" t="s">
         <v>183</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="I34" t="s">
         <v>104</v>
       </c>
@@ -5460,7 +5461,9 @@
       <c r="D35" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="I35" t="s">
         <v>106</v>
       </c>
@@ -5506,7 +5509,9 @@
       <c r="D37" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="I37" t="s">
         <v>75</v>
       </c>
@@ -5528,7 +5533,9 @@
       <c r="D38" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
@@ -5562,7 +5569,9 @@
       <c r="D40" t="s">
         <v>179</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
@@ -5578,7 +5587,9 @@
       <c r="D41" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
@@ -5594,7 +5605,9 @@
       <c r="D42" t="s">
         <v>165</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
@@ -5610,7 +5623,9 @@
       <c r="D43" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipti.3QTRUS\Desktop\stickJumpForce\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4931CC29-86C2-4F1A-B60E-65398721E9AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12168" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -12,9 +18,9 @@
     <sheet name="Sprint 2" sheetId="8" r:id="rId3"/>
     <sheet name="Sprint 3" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="184">
   <si>
     <t>Product Name:</t>
   </si>
@@ -597,7 +603,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -775,8 +781,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -811,6 +827,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -819,10 +836,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -908,13 +927,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40CD-1743-9298-551210F01EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="124741120"/>
         <c:axId val="124755968"/>
       </c:lineChart>
@@ -923,6 +951,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -950,6 +979,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -960,6 +990,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -999,12 +1030,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="124755968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1050,6 +1083,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1060,6 +1094,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1102,6 +1137,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1137,8 +1173,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1166,6 +1212,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1174,10 +1221,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1253,13 +1302,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="126353792"/>
         <c:axId val="126355712"/>
       </c:lineChart>
@@ -1268,6 +1326,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1295,6 +1354,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1305,6 +1365,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1344,6 +1405,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="126355712"/>
@@ -1352,6 +1414,7 @@
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1393,6 +1456,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1403,6 +1467,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1447,6 +1512,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1482,8 +1548,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1511,6 +1587,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1519,10 +1596,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1610,13 +1689,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="126401152"/>
         <c:axId val="126415616"/>
       </c:lineChart>
@@ -1625,6 +1713,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1652,6 +1741,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1662,6 +1752,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1701,6 +1792,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="126415616"/>
@@ -1709,6 +1801,7 @@
           <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1750,6 +1843,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1760,6 +1854,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1804,6 +1899,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1839,8 +1935,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1868,7 +1974,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1877,10 +1983,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1998,13 +2106,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C45-4E41-8A8C-4CDAD314EF5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="126637184"/>
         <c:axId val="126639104"/>
       </c:lineChart>
@@ -2013,6 +2130,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2040,7 +2158,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2051,6 +2169,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2090,6 +2209,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="126639104"/>
@@ -2098,6 +2218,7 @@
           <c:max val="30"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2139,7 +2260,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2150,6 +2271,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2194,6 +2316,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2248,7 +2371,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2412,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2453,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2494,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,34 +2770,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3564,24 +3687,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4294,24 +4417,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:E42"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4822,7 +4945,9 @@
       <c r="D34" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35"/>
@@ -4986,24 +5111,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="42" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5224,7 +5349,9 @@
       <c r="D24" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="I24" s="23" t="s">
         <v>82</v>
       </c>

--- a/Product_backlog.xlsx
+++ b/Product_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipti.3QTRUS\Desktop\stickJumpForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4931CC29-86C2-4F1A-B60E-65398721E9AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB806D65-E5F1-4924-8233-A053B4C04DE8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="184">
   <si>
     <t>Product Name:</t>
   </si>
@@ -655,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,6 +686,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -699,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -763,6 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5115,7 +5122,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5395,7 +5402,7 @@
       <c r="D26" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="27" t="s">
         <v>41</v>
       </c>
       <c r="I26" t="s">
@@ -5419,7 +5426,9 @@
       <c r="D27" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="I27" t="s">
         <v>42</v>
       </c>
